--- a/CSE-3.xlsx
+++ b/CSE-3.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="366">
   <si>
     <t>name</t>
   </si>
@@ -43,7 +43,7 @@
     <t/>
   </si>
   <si>
-    <t>Report generated on: 7/14/2024, 8:37:57 AM</t>
+    <t>Report generated on: 7/14/2024, 4:33:23 PM</t>
   </si>
   <si>
     <t>Just Avoid: If anyone found sharing of screenshot then that person id will be banned permanentally from kiit-connect and if anyone report about that person who has shared the screenshot can be rewarded Premium Membership and Some gift.</t>
@@ -154,6 +154,9 @@
     <t>Subhadarshan Sahoo</t>
   </si>
   <si>
+    <t>["Chill teacher h, sb kuch time pe karoge toh internal me accha number deta h and jitna exam me likh ke aayoge utha hi number dega"]</t>
+  </si>
+  <si>
     <t>Section 3</t>
   </si>
   <si>
@@ -373,7 +376,7 @@
     <t>Sudipta Kumar Ghosh</t>
   </si>
   <si>
-    <t>["badhiya understanding teacher hai"]</t>
+    <t>["badhiya understanding teacher hai","Student-friendly hai but is kinda biased"]</t>
   </si>
   <si>
     <t>Snehalika</t>
@@ -836,6 +839,9 @@
   </si>
   <si>
     <t>Makireddi Ramana</t>
+  </si>
+  <si>
+    <t>["Makireddi is madharchod"]</t>
   </si>
   <si>
     <t>Section 28</t>
@@ -1659,7 +1665,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>21</v>
@@ -1744,7 +1750,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>35</v>
@@ -1791,19 +1797,19 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="C31" s="11">
+        <v>17</v>
+      </c>
+      <c r="D31" s="11">
+        <v>6</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1835,7 +1841,7 @@
         <v>12</v>
       </c>
       <c r="D33" s="12">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>44</v>
@@ -1859,31 +1865,31 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="10">
-        <v>9</v>
-      </c>
-      <c r="D35" s="10">
+      <c r="C35" s="11">
+        <v>16</v>
+      </c>
+      <c r="D35" s="11">
         <v>10</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>27</v>
+      <c r="E35" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>23</v>
@@ -1895,12 +1901,12 @@
         <v>3</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>20</v>
@@ -1912,12 +1918,12 @@
         <v>36</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>34</v>
@@ -1929,12 +1935,12 @@
         <v>1</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>26</v>
@@ -1951,13 +1957,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D42" s="10">
         <v>9</v>
@@ -1968,7 +1974,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>29</v>
@@ -1980,35 +1986,35 @@
         <v>0</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C46" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>23</v>
@@ -2020,12 +2026,12 @@
         <v>23</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>34</v>
@@ -2034,18 +2040,18 @@
         <v>46</v>
       </c>
       <c r="D48" s="10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C49" s="10">
         <v>11</v>
@@ -2059,7 +2065,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>29</v>
@@ -2076,10 +2082,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C51" s="9">
         <v>5</v>
@@ -2088,12 +2094,12 @@
         <v>27</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>26</v>
@@ -2105,21 +2111,21 @@
         <v>5</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C55" s="12">
         <v>14</v>
@@ -2128,12 +2134,12 @@
         <v>38</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>40</v>
@@ -2145,12 +2151,12 @@
         <v>14</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>29</v>
@@ -2159,15 +2165,15 @@
         <v>5</v>
       </c>
       <c r="D57" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>26</v>
@@ -2179,29 +2185,29 @@
         <v>5</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C59" s="13">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D59" s="13">
         <v>10</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>34</v>
@@ -2213,38 +2219,38 @@
         <v>14</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>88</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="A63" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C63">
+      <c r="B63" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" s="11">
+        <v>3</v>
+      </c>
+      <c r="D63" s="11">
         <v>2</v>
       </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="E63" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C64" s="11">
         <v>37</v>
@@ -2253,12 +2259,12 @@
         <v>15</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>34</v>
@@ -2275,13 +2281,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B66" t="s">
         <v>29</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2292,7 +2298,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>31</v>
@@ -2304,12 +2310,12 @@
         <v>13</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>26</v>
@@ -2321,15 +2327,15 @@
         <v>5</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -2344,15 +2350,15 @@
     <row r="70" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C72" s="12">
         <v>14</v>
@@ -2361,7 +2367,7 @@
         <v>38</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2383,58 +2389,58 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C74" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D74" s="9">
         <v>42</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C75" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D75" s="13">
         <v>3</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C76" s="13">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D76" s="13">
         <v>1</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>31</v>
@@ -2446,12 +2452,12 @@
         <v>18</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
         <v>29</v>
@@ -2468,7 +2474,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>26</v>
@@ -2480,103 +2486,103 @@
         <v>7</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C82" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D82" s="11">
         <v>11</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C83" s="13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D83" s="13">
         <v>4</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C84" s="10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D84" s="10">
         <v>18</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B85" s="9" t="s">
+      <c r="A85" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="9">
-        <v>14</v>
-      </c>
-      <c r="D85" s="9">
+      <c r="C85" s="12">
+        <v>17</v>
+      </c>
+      <c r="D85" s="12">
         <v>58</v>
       </c>
-      <c r="E85" s="9" t="s">
-        <v>120</v>
+      <c r="E85" s="12" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B86" s="13" t="s">
+      <c r="A86" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B86" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C86" s="13">
-        <v>32</v>
-      </c>
-      <c r="D86" s="13">
-        <v>1</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>122</v>
+      <c r="C86" s="11">
+        <v>33</v>
+      </c>
+      <c r="D86" s="11">
+        <v>11</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B87" t="s">
         <v>26</v>
@@ -2592,31 +2598,31 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>124</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="A88" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
+      <c r="C88" s="11">
+        <v>3</v>
+      </c>
+      <c r="D88" s="11">
         <v>2</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>20</v>
@@ -2625,15 +2631,15 @@
         <v>21</v>
       </c>
       <c r="D91" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>40</v>
@@ -2642,49 +2648,49 @@
         <v>10</v>
       </c>
       <c r="D92" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C93" s="13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D93" s="13">
         <v>5</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B94" s="10" t="s">
+      <c r="A94" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B94" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C94" s="10">
-        <v>4</v>
-      </c>
-      <c r="D94" s="10">
-        <v>3</v>
-      </c>
-      <c r="E94" s="10" t="s">
+      <c r="C94" s="11">
+        <v>14</v>
+      </c>
+      <c r="D94" s="11">
+        <v>8</v>
+      </c>
+      <c r="E94" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B95" t="s">
         <v>26</v>
@@ -2700,48 +2706,48 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>124</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="A96" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B96" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
+      <c r="C96" s="11">
+        <v>3</v>
+      </c>
+      <c r="D96" s="11">
         <v>2</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B99" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C99" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D99" s="10">
         <v>19</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B100" s="13" t="s">
         <v>20</v>
@@ -2753,12 +2759,12 @@
         <v>6</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B101" s="13" t="s">
         <v>34</v>
@@ -2770,23 +2776,23 @@
         <v>1</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B102" s="11" t="s">
+      <c r="A102" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C102" s="11">
+      <c r="C102" s="12">
         <v>3</v>
       </c>
-      <c r="D102" s="11">
-        <v>2</v>
-      </c>
-      <c r="E102" s="11" t="s">
+      <c r="D102" s="12">
+        <v>12</v>
+      </c>
+      <c r="E102" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2801,7 +2807,7 @@
         <v>12</v>
       </c>
       <c r="D103" s="12">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E103" s="12" t="s">
         <v>44</v>
@@ -2826,10 +2832,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C105" s="10">
         <v>13</v>
@@ -2838,18 +2844,18 @@
         <v>19</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>20</v>
@@ -2858,49 +2864,49 @@
         <v>21</v>
       </c>
       <c r="D108" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C109" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D109" s="10">
         <v>14</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B110" s="13" t="s">
+      <c r="A110" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B110" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C110" s="13">
-        <v>12</v>
-      </c>
-      <c r="D110" s="13">
-        <v>2</v>
-      </c>
-      <c r="E110" s="13" t="s">
+      <c r="C110" s="11">
+        <v>17</v>
+      </c>
+      <c r="D110" s="11">
+        <v>7</v>
+      </c>
+      <c r="E110" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B111" t="s">
         <v>29</v>
@@ -2916,25 +2922,25 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B112" s="12" t="s">
+      <c r="A112" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C112" s="12">
-        <v>7</v>
-      </c>
-      <c r="D112" s="12">
+      <c r="C112" s="10">
+        <v>9</v>
+      </c>
+      <c r="D112" s="10">
         <v>12</v>
       </c>
-      <c r="E112" s="12" t="s">
-        <v>150</v>
+      <c r="E112" s="10" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B113" t="s">
         <v>27</v>
@@ -2952,12 +2958,12 @@
     <row r="114" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B116" s="12" t="s">
         <v>23</v>
@@ -2974,7 +2980,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B117" s="13" t="s">
         <v>20</v>
@@ -2986,46 +2992,46 @@
         <v>0</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B118" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C118" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D118" s="10">
         <v>14</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B119" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C119" s="13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D119" s="13">
         <v>0</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B120" s="11" t="s">
         <v>26</v>
@@ -3037,12 +3043,12 @@
         <v>16</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B121" s="12" t="s">
         <v>34</v>
@@ -3051,7 +3057,7 @@
         <v>7</v>
       </c>
       <c r="D121" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E121" s="12" t="s">
         <v>27</v>
@@ -3060,12 +3066,12 @@
     <row r="122" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B124" s="11" t="s">
         <v>20</v>
@@ -3077,12 +3083,12 @@
         <v>8</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B125" t="s">
         <v>40</v>
@@ -3099,7 +3105,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B126" s="12" t="s">
         <v>31</v>
@@ -3108,15 +3114,15 @@
         <v>10</v>
       </c>
       <c r="D126" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B127" s="11" t="s">
         <v>34</v>
@@ -3128,7 +3134,7 @@
         <v>4</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -3150,7 +3156,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B129" s="11" t="s">
         <v>26</v>
@@ -3162,18 +3168,18 @@
         <v>16</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B132" s="12" t="s">
         <v>23</v>
@@ -3185,29 +3191,29 @@
         <v>45</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B133" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C133" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D133" s="10">
         <v>29</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B134" s="11" t="s">
         <v>26</v>
@@ -3224,7 +3230,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B135" s="12" t="s">
         <v>34</v>
@@ -3236,12 +3242,12 @@
         <v>16</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B136" t="s">
         <v>20</v>
@@ -3258,7 +3264,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B137" t="s">
         <v>29</v>
@@ -3275,7 +3281,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>31</v>
@@ -3287,15 +3293,15 @@
         <v>27</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B139" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -3310,46 +3316,46 @@
     <row r="140" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C142" s="10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D142" s="10">
         <v>22</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B143" s="13" t="s">
+      <c r="A143" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B143" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C143" s="13">
-        <v>6</v>
-      </c>
-      <c r="D143" s="13">
-        <v>1</v>
-      </c>
-      <c r="E143" s="13" t="s">
-        <v>186</v>
+      <c r="C143" s="11">
+        <v>7</v>
+      </c>
+      <c r="D143" s="11">
+        <v>2</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B144" s="11" t="s">
         <v>26</v>
@@ -3366,41 +3372,41 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B145" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C145" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D145" s="11">
         <v>23</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B146" s="13" t="s">
+      <c r="A146" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B146" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C146" s="13">
-        <v>32</v>
-      </c>
-      <c r="D146" s="13">
-        <v>1</v>
-      </c>
-      <c r="E146" s="13" t="s">
-        <v>122</v>
+      <c r="C146" s="11">
+        <v>33</v>
+      </c>
+      <c r="D146" s="11">
+        <v>11</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>31</v>
@@ -3412,15 +3418,15 @@
         <v>27</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C148" s="10">
         <v>13</v>
@@ -3429,24 +3435,24 @@
         <v>19</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C151" s="10">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D151" s="10">
         <v>22</v>
@@ -3457,7 +3463,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B152" s="11" t="s">
         <v>20</v>
@@ -3469,12 +3475,12 @@
         <v>2</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B153" s="11" t="s">
         <v>23</v>
@@ -3486,29 +3492,29 @@
         <v>10</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B154" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C154" s="13">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D154" s="13">
         <v>6</v>
       </c>
       <c r="E154" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B155" s="12" t="s">
         <v>31</v>
@@ -3517,7 +3523,7 @@
         <v>11</v>
       </c>
       <c r="D155" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E155" s="12" t="s">
         <v>27</v>
@@ -3525,7 +3531,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B156" s="10" t="s">
         <v>34</v>
@@ -3537,12 +3543,12 @@
         <v>8</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B157" t="s">
         <v>29</v>
@@ -3558,31 +3564,31 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>124</v>
-      </c>
-      <c r="B158" t="s">
+      <c r="A158" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B158" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C158">
-        <v>1</v>
-      </c>
-      <c r="D158">
+      <c r="C158" s="11">
+        <v>3</v>
+      </c>
+      <c r="D158" s="11">
         <v>2</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B161" s="11" t="s">
         <v>23</v>
@@ -3594,29 +3600,29 @@
         <v>3</v>
       </c>
       <c r="E161" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B162" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C162" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D162" s="11">
         <v>6</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B163" s="11" t="s">
         <v>31</v>
@@ -3633,27 +3639,27 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B164" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C164" s="13">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D164" s="13">
         <v>6</v>
       </c>
       <c r="E164" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C165" s="10">
         <v>15</v>
@@ -3662,7 +3668,7 @@
         <v>13</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -3676,7 +3682,7 @@
         <v>2</v>
       </c>
       <c r="D166" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E166" s="9" t="s">
         <v>35</v>
@@ -3685,12 +3691,12 @@
     <row r="167" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B169" s="9" t="s">
         <v>23</v>
@@ -3699,15 +3705,15 @@
         <v>7</v>
       </c>
       <c r="D169" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B170" s="13" t="s">
         <v>20</v>
@@ -3716,15 +3722,15 @@
         <v>60</v>
       </c>
       <c r="D170" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B171" s="11" t="s">
         <v>26</v>
@@ -3736,15 +3742,15 @@
         <v>7</v>
       </c>
       <c r="E171" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C172" s="10">
         <v>11</v>
@@ -3757,28 +3763,28 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B173" s="13" t="s">
+      <c r="A173" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C173" s="13">
-        <v>23</v>
-      </c>
-      <c r="D173" s="13">
-        <v>5</v>
-      </c>
-      <c r="E173" s="13" t="s">
+      <c r="B173" s="11" t="s">
         <v>219</v>
+      </c>
+      <c r="C173" s="11">
+        <v>24</v>
+      </c>
+      <c r="D173" s="11">
+        <v>10</v>
+      </c>
+      <c r="E173" s="11" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B174" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3791,48 +3797,48 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="10" t="s">
+      <c r="A175" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B175" s="10" t="s">
+      <c r="B175" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C175" s="10">
-        <v>9</v>
-      </c>
-      <c r="D175" s="10">
+      <c r="C175" s="11">
+        <v>16</v>
+      </c>
+      <c r="D175" s="11">
         <v>10</v>
       </c>
-      <c r="E175" s="10" t="s">
-        <v>27</v>
+      <c r="E175" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B178" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C178" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D178" s="11">
         <v>14</v>
       </c>
       <c r="E178" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B179" t="s">
         <v>23</v>
@@ -3844,12 +3850,12 @@
         <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B180" s="12" t="s">
         <v>20</v>
@@ -3861,12 +3867,12 @@
         <v>21</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B181" s="13" t="s">
         <v>34</v>
@@ -3878,12 +3884,12 @@
         <v>1</v>
       </c>
       <c r="E181" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B182" s="11" t="s">
         <v>26</v>
@@ -3895,15 +3901,15 @@
         <v>7</v>
       </c>
       <c r="E182" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C183" s="9">
         <v>2</v>
@@ -3912,12 +3918,12 @@
         <v>55</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B184" s="9" t="s">
         <v>31</v>
@@ -3929,52 +3935,52 @@
         <v>27</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>124</v>
-      </c>
-      <c r="B185" t="s">
+      <c r="A185" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B185" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C185">
-        <v>1</v>
-      </c>
-      <c r="D185">
+      <c r="C185" s="11">
+        <v>3</v>
+      </c>
+      <c r="D185" s="11">
         <v>2</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E185" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C188" s="11">
         <v>37</v>
       </c>
       <c r="D188" s="11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E188" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B189" s="10" t="s">
         <v>34</v>
@@ -3983,15 +3989,15 @@
         <v>46</v>
       </c>
       <c r="D189" s="10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E189" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B190" s="11" t="s">
         <v>26</v>
@@ -4003,12 +4009,12 @@
         <v>7</v>
       </c>
       <c r="E190" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B191" s="13" t="s">
         <v>23</v>
@@ -4025,10 +4031,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C192" s="9">
         <v>2</v>
@@ -4037,15 +4043,15 @@
         <v>55</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B193" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C193">
         <v>2</v>
@@ -4059,10 +4065,10 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B194" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -4077,12 +4083,12 @@
     <row r="195" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B197" s="11" t="s">
         <v>20</v>
@@ -4094,63 +4100,63 @@
         <v>3</v>
       </c>
       <c r="E197" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B198" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C198" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D198" s="13">
         <v>3</v>
       </c>
       <c r="E198" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B199" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C199" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D199" s="11">
         <v>24</v>
       </c>
       <c r="E199" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B200" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C200" s="13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D200" s="13">
         <v>1</v>
       </c>
       <c r="E200" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B201" t="s">
         <v>26</v>
@@ -4167,10 +4173,10 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C202" s="10">
         <v>13</v>
@@ -4179,12 +4185,12 @@
         <v>19</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B203" s="11" t="s">
         <v>34</v>
@@ -4196,18 +4202,18 @@
         <v>14</v>
       </c>
       <c r="E203" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B206" s="12" t="s">
         <v>23</v>
@@ -4216,15 +4222,15 @@
         <v>14</v>
       </c>
       <c r="D206" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E206" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B207" s="11" t="s">
         <v>34</v>
@@ -4241,7 +4247,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B208" s="12" t="s">
         <v>26</v>
@@ -4253,12 +4259,12 @@
         <v>9</v>
       </c>
       <c r="E208" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B209" t="s">
         <v>20</v>
@@ -4275,19 +4281,19 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B210" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C210" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D210" s="11">
         <v>24</v>
       </c>
       <c r="E210" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -4309,10 +4315,10 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B212" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C212">
         <v>2</v>
@@ -4327,29 +4333,29 @@
     <row r="213" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C215" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D215" s="13">
         <v>1</v>
       </c>
       <c r="E215" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B216" s="10" t="s">
         <v>23</v>
@@ -4361,12 +4367,12 @@
         <v>18</v>
       </c>
       <c r="E216" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B217" s="12" t="s">
         <v>31</v>
@@ -4375,7 +4381,7 @@
         <v>11</v>
       </c>
       <c r="D217" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E217" s="12" t="s">
         <v>27</v>
@@ -4383,24 +4389,24 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B218" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C218" s="13">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D218" s="13">
         <v>1</v>
       </c>
       <c r="E218" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B219" t="s">
         <v>20</v>
@@ -4417,10 +4423,10 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C220" s="10">
         <v>15</v>
@@ -4429,18 +4435,18 @@
         <v>13</v>
       </c>
       <c r="E220" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B221" t="s">
         <v>31</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -4451,7 +4457,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B222" s="12" t="s">
         <v>26</v>
@@ -4469,12 +4475,12 @@
     <row r="223" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B225" s="13" t="s">
         <v>20</v>
@@ -4486,15 +4492,15 @@
         <v>15</v>
       </c>
       <c r="E225" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C226" s="11">
         <v>8</v>
@@ -4507,25 +4513,25 @@
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B227" s="9" t="s">
+      <c r="A227" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B227" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C227" s="9">
-        <v>14</v>
-      </c>
-      <c r="D227" s="9">
+      <c r="C227" s="12">
+        <v>17</v>
+      </c>
+      <c r="D227" s="12">
         <v>58</v>
       </c>
-      <c r="E227" s="9" t="s">
-        <v>120</v>
+      <c r="E227" s="12" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B228" s="12" t="s">
         <v>31</v>
@@ -4537,15 +4543,15 @@
         <v>18</v>
       </c>
       <c r="E228" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C229" s="10">
         <v>15</v>
@@ -4554,12 +4560,12 @@
         <v>13</v>
       </c>
       <c r="E229" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B230" t="s">
         <v>23</v>
@@ -4576,7 +4582,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B231" t="s">
         <v>26</v>
@@ -4594,29 +4600,29 @@
     <row r="232" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>88</v>
-      </c>
-      <c r="B234" t="s">
+      <c r="A234" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C234">
+      <c r="B234" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C234" s="11">
+        <v>3</v>
+      </c>
+      <c r="D234" s="11">
         <v>2</v>
       </c>
-      <c r="D234">
-        <v>2</v>
-      </c>
-      <c r="E234" t="s">
+      <c r="E234" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B235" s="10" t="s">
         <v>20</v>
@@ -4628,29 +4634,29 @@
         <v>14</v>
       </c>
       <c r="E235" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B236" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C236" s="10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D236" s="10">
         <v>18</v>
       </c>
       <c r="E236" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B237" s="11" t="s">
         <v>31</v>
@@ -4667,41 +4673,41 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B238" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C238" s="13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D238" s="13">
         <v>5</v>
       </c>
       <c r="E238" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B239" s="13" t="s">
+      <c r="A239" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C239" s="13">
-        <v>23</v>
-      </c>
-      <c r="D239" s="13">
-        <v>5</v>
-      </c>
-      <c r="E239" s="13" t="s">
+      <c r="B239" s="11" t="s">
         <v>219</v>
+      </c>
+      <c r="C239" s="11">
+        <v>24</v>
+      </c>
+      <c r="D239" s="11">
+        <v>10</v>
+      </c>
+      <c r="E239" s="11" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B240" t="s">
         <v>26</v>
@@ -4719,12 +4725,12 @@
     <row r="241" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B243" s="12" t="s">
         <v>23</v>
@@ -4736,12 +4742,12 @@
         <v>23</v>
       </c>
       <c r="E243" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B244" s="12" t="s">
         <v>31</v>
@@ -4750,15 +4756,15 @@
         <v>10</v>
       </c>
       <c r="D244" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E244" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B245" s="13" t="s">
         <v>34</v>
@@ -4770,15 +4776,15 @@
         <v>1</v>
       </c>
       <c r="E245" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C246" s="11">
         <v>11</v>
@@ -4792,10 +4798,10 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B247" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -4808,25 +4814,25 @@
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B248" s="13" t="s">
+      <c r="A248" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C248" s="13">
-        <v>23</v>
-      </c>
-      <c r="D248" s="13">
-        <v>5</v>
-      </c>
-      <c r="E248" s="13" t="s">
+      <c r="B248" s="11" t="s">
         <v>219</v>
+      </c>
+      <c r="C248" s="11">
+        <v>24</v>
+      </c>
+      <c r="D248" s="11">
+        <v>10</v>
+      </c>
+      <c r="E248" s="11" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B249" t="s">
         <v>26</v>
@@ -4844,29 +4850,29 @@
     <row r="250" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B252" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C252" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D252" s="13">
         <v>1</v>
       </c>
       <c r="E252" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B253" s="11" t="s">
         <v>31</v>
@@ -4883,41 +4889,41 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B254" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C254" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D254" s="13">
         <v>3</v>
       </c>
       <c r="E254" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B255" s="13" t="s">
+      <c r="A255" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B255" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C255" s="13">
-        <v>12</v>
-      </c>
-      <c r="D255" s="13">
-        <v>2</v>
-      </c>
-      <c r="E255" s="13" t="s">
+      <c r="C255" s="11">
+        <v>17</v>
+      </c>
+      <c r="D255" s="11">
+        <v>7</v>
+      </c>
+      <c r="E255" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B256" t="s">
         <v>20</v>
@@ -4926,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="D256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E256" t="s">
         <v>27</v>
@@ -4934,7 +4940,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B257" s="12" t="s">
         <v>29</v>
@@ -4946,12 +4952,12 @@
         <v>23</v>
       </c>
       <c r="E257" s="12" t="s">
-        <v>27</v>
+        <v>276</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B258" t="s">
         <v>26</v>
@@ -4969,29 +4975,29 @@
     <row r="259" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="B261" s="9" t="s">
+      <c r="A261" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B261" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C261" s="9">
-        <v>2</v>
-      </c>
-      <c r="D261" s="9">
+      <c r="C261" s="12">
+        <v>3</v>
+      </c>
+      <c r="D261" s="12">
         <v>10</v>
       </c>
-      <c r="E261" s="9" t="s">
+      <c r="E261" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="13" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B262" s="13" t="s">
         <v>20</v>
@@ -5008,7 +5014,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B263" s="12" t="s">
         <v>29</v>
@@ -5020,7 +5026,7 @@
         <v>23</v>
       </c>
       <c r="E263" s="12" t="s">
-        <v>27</v>
+        <v>276</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -5042,7 +5048,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B265" t="s">
         <v>26</v>
@@ -5059,10 +5065,10 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B266" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -5076,7 +5082,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B267" s="12" t="s">
         <v>34</v>
@@ -5085,7 +5091,7 @@
         <v>7</v>
       </c>
       <c r="D267" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E267" s="12" t="s">
         <v>27</v>
@@ -5094,35 +5100,35 @@
     <row r="268" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="B270" s="9" t="s">
+      <c r="A270" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B270" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C270" s="9">
-        <v>2</v>
-      </c>
-      <c r="D270" s="9">
+      <c r="C270" s="12">
+        <v>3</v>
+      </c>
+      <c r="D270" s="12">
         <v>10</v>
       </c>
-      <c r="E270" s="9" t="s">
+      <c r="E270" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B271" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C271" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D271" s="10">
         <v>9</v>
@@ -5133,7 +5139,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B272" s="11" t="s">
         <v>34</v>
@@ -5145,12 +5151,12 @@
         <v>4</v>
       </c>
       <c r="E272" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="11" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B273" s="11" t="s">
         <v>20</v>
@@ -5162,12 +5168,12 @@
         <v>6</v>
       </c>
       <c r="E273" s="11" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B274" s="12" t="s">
         <v>29</v>
@@ -5179,12 +5185,12 @@
         <v>23</v>
       </c>
       <c r="E274" s="12" t="s">
-        <v>27</v>
+        <v>276</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="12" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B275" s="12" t="s">
         <v>31</v>
@@ -5196,12 +5202,12 @@
         <v>21</v>
       </c>
       <c r="E275" s="12" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B276" t="s">
         <v>26</v>
@@ -5219,12 +5225,12 @@
     <row r="277" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B279" s="12" t="s">
         <v>23</v>
@@ -5233,10 +5239,10 @@
         <v>14</v>
       </c>
       <c r="D279" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E279" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -5258,7 +5264,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B281" s="12" t="s">
         <v>34</v>
@@ -5270,15 +5276,15 @@
         <v>16</v>
       </c>
       <c r="E281" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B282" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -5301,7 +5307,7 @@
         <v>12</v>
       </c>
       <c r="D283" s="12">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E283" s="12" t="s">
         <v>44</v>
@@ -5309,7 +5315,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B284" t="s">
         <v>26</v>
@@ -5327,32 +5333,32 @@
     <row r="285" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C287" s="11">
         <v>37</v>
       </c>
       <c r="D287" s="11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E287" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C288" s="11">
         <v>19</v>
@@ -5361,49 +5367,49 @@
         <v>11</v>
       </c>
       <c r="E288" s="11" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B289" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C289" s="13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D289" s="13">
         <v>4</v>
       </c>
       <c r="E289" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B290" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C290" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D290" s="11">
         <v>23</v>
       </c>
       <c r="E290" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B291" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -5417,10 +5423,10 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B292" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C292">
         <v>2</v>
@@ -5434,7 +5440,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B293" s="12" t="s">
         <v>26</v>
@@ -5451,10 +5457,10 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B294" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -5469,15 +5475,15 @@
     <row r="295" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="13" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B297" s="13" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C297" s="13">
         <v>6</v>
@@ -5491,7 +5497,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B298" s="12" t="s">
         <v>40</v>
@@ -5500,32 +5506,32 @@
         <v>10</v>
       </c>
       <c r="D298" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E298" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B299" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C299" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D299" s="10">
         <v>14</v>
       </c>
       <c r="E299" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B300" s="10" t="s">
         <v>34</v>
@@ -5537,12 +5543,12 @@
         <v>8</v>
       </c>
       <c r="E300" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B301" t="s">
         <v>26</v>
@@ -5559,7 +5565,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B302" t="s">
         <v>20</v>
@@ -5568,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="D302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E302" t="s">
         <v>27</v>
@@ -5576,7 +5582,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B303" t="s">
         <v>29</v>
@@ -5593,10 +5599,10 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C304" s="9">
         <v>5</v>
@@ -5605,18 +5611,18 @@
         <v>27</v>
       </c>
       <c r="E304" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B307" s="12" t="s">
         <v>23</v>
@@ -5633,7 +5639,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="13" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B308" s="13" t="s">
         <v>20</v>
@@ -5645,12 +5651,12 @@
         <v>3</v>
       </c>
       <c r="E308" s="13" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="11" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B309" s="11" t="s">
         <v>20</v>
@@ -5662,12 +5668,12 @@
         <v>6</v>
       </c>
       <c r="E309" s="11" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="13" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B310" s="13" t="s">
         <v>29</v>
@@ -5679,18 +5685,18 @@
         <v>1</v>
       </c>
       <c r="E310" s="13" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B311" t="s">
         <v>31</v>
       </c>
       <c r="C311">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -5701,7 +5707,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B312" t="s">
         <v>26</v>
@@ -5718,19 +5724,19 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B313" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C313" s="13">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D313" s="13">
         <v>10</v>
       </c>
       <c r="E313" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -5744,7 +5750,7 @@
         <v>2</v>
       </c>
       <c r="D314" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E314" s="9" t="s">
         <v>35</v>
@@ -5753,35 +5759,35 @@
     <row r="315" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C317" s="10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D317" s="10">
         <v>22</v>
       </c>
       <c r="E317" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B318" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C318" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D318" s="10">
         <v>9</v>
@@ -5792,13 +5798,13 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B319" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C319" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D319" s="10">
         <v>7</v>
@@ -5809,24 +5815,24 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="9" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B320" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C320" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D320" s="9">
         <v>18</v>
       </c>
       <c r="E320" s="9" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="12" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B321" s="12" t="s">
         <v>29</v>
@@ -5852,41 +5858,41 @@
         <v>12</v>
       </c>
       <c r="D322" s="12">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E322" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="10" t="s">
+      <c r="A323" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B323" s="10" t="s">
+      <c r="B323" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C323" s="10">
-        <v>9</v>
-      </c>
-      <c r="D323" s="10">
+      <c r="C323" s="11">
+        <v>16</v>
+      </c>
+      <c r="D323" s="11">
         <v>10</v>
       </c>
-      <c r="E323" s="10" t="s">
-        <v>27</v>
+      <c r="E323" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="11" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C326" s="11">
         <v>42</v>
@@ -5895,12 +5901,12 @@
         <v>20</v>
       </c>
       <c r="E326" s="11" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B327" s="13" t="s">
         <v>34</v>
@@ -5912,12 +5918,12 @@
         <v>1</v>
       </c>
       <c r="E327" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B328" s="13" t="s">
         <v>23</v>
@@ -5934,13 +5940,13 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="13" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C329" s="13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D329" s="13">
         <v>1</v>
@@ -5951,13 +5957,13 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B330" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C330" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D330" s="10">
         <v>7</v>
@@ -5968,7 +5974,7 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="12" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B331" s="12" t="s">
         <v>29</v>
@@ -5985,10 +5991,10 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B332" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C332">
         <v>1</v>
@@ -6003,12 +6009,12 @@
     <row r="333" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B335" s="10" t="s">
         <v>23</v>
@@ -6020,29 +6026,29 @@
         <v>3</v>
       </c>
       <c r="E335" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C336" s="10">
         <v>21</v>
       </c>
       <c r="D336" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E336" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B337" s="10" t="s">
         <v>34</v>
@@ -6051,21 +6057,21 @@
         <v>46</v>
       </c>
       <c r="D337" s="10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E337" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="13" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B338" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C338" s="13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D338" s="13">
         <v>1</v>
@@ -6076,7 +6082,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B339" t="s">
         <v>29</v>
@@ -6093,7 +6099,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B340" s="9" t="s">
         <v>31</v>
@@ -6105,12 +6111,12 @@
         <v>27</v>
       </c>
       <c r="E340" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B341" t="s">
         <v>26</v>
@@ -6127,13 +6133,13 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B342" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C342">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D342">
         <v>1</v>
@@ -6145,12 +6151,12 @@
     <row r="343" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B345" s="12" t="s">
         <v>23</v>
@@ -6162,15 +6168,15 @@
         <v>45</v>
       </c>
       <c r="E345" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="13" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B346" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C346" s="13">
         <v>87</v>
@@ -6179,12 +6185,12 @@
         <v>18</v>
       </c>
       <c r="E346" s="13" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B347" s="12" t="s">
         <v>31</v>
@@ -6193,7 +6199,7 @@
         <v>11</v>
       </c>
       <c r="D347" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E347" s="12" t="s">
         <v>27</v>
@@ -6201,7 +6207,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B348" s="12" t="s">
         <v>26</v>
@@ -6213,12 +6219,12 @@
         <v>9</v>
       </c>
       <c r="E348" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="9" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B349" s="9" t="s">
         <v>29</v>
@@ -6230,18 +6236,18 @@
         <v>32</v>
       </c>
       <c r="E349" s="9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B350" t="s">
         <v>31</v>
       </c>
       <c r="C350">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D350">
         <v>0</v>
@@ -6252,7 +6258,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B351" s="11" t="s">
         <v>34</v>
@@ -6264,18 +6270,18 @@
         <v>14</v>
       </c>
       <c r="E351" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B354" s="11" t="s">
         <v>40</v>
@@ -6287,15 +6293,15 @@
         <v>14</v>
       </c>
       <c r="E354" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="11" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C355" s="11">
         <v>47</v>
@@ -6304,29 +6310,29 @@
         <v>20</v>
       </c>
       <c r="E355" s="11" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B356" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C356" s="10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D356" s="10">
         <v>18</v>
       </c>
       <c r="E356" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B357" s="11" t="s">
         <v>34</v>
@@ -6343,7 +6349,7 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B358" s="12" t="s">
         <v>31</v>
@@ -6352,7 +6358,7 @@
         <v>11</v>
       </c>
       <c r="D358" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E358" s="12" t="s">
         <v>27</v>
@@ -6360,7 +6366,7 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="9" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B359" s="9" t="s">
         <v>29</v>
@@ -6372,12 +6378,12 @@
         <v>32</v>
       </c>
       <c r="E359" s="9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B360" t="s">
         <v>26</v>
@@ -6394,13 +6400,13 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B361" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C361">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D361">
         <v>1</v>
@@ -6412,12 +6418,12 @@
     <row r="362" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B364" s="13" t="s">
         <v>20</v>
@@ -6429,12 +6435,12 @@
         <v>0</v>
       </c>
       <c r="E364" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B365" s="13" t="s">
         <v>26</v>
@@ -6446,29 +6452,29 @@
         <v>0</v>
       </c>
       <c r="E365" s="13" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B366" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C366" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D366" s="10">
         <v>14</v>
       </c>
       <c r="E366" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B367" s="11" t="s">
         <v>23</v>
@@ -6480,12 +6486,12 @@
         <v>10</v>
       </c>
       <c r="E367" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B368" s="12" t="s">
         <v>31</v>
@@ -6494,32 +6500,32 @@
         <v>10</v>
       </c>
       <c r="D368" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E368" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B369" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C369" s="13">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D369" s="13">
         <v>1</v>
       </c>
       <c r="E369" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="11" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B370" s="11" t="s">
         <v>29</v>
@@ -6531,21 +6537,21 @@
         <v>5</v>
       </c>
       <c r="E370" s="11" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B373" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C373" s="11">
         <v>43</v>
@@ -6559,7 +6565,7 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B374" s="9" t="s">
         <v>23</v>
@@ -6568,15 +6574,15 @@
         <v>7</v>
       </c>
       <c r="D374" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E374" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B375" s="12" t="s">
         <v>20</v>
@@ -6588,12 +6594,12 @@
         <v>36</v>
       </c>
       <c r="E375" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B376" s="13" t="s">
         <v>26</v>
@@ -6605,29 +6611,29 @@
         <v>0</v>
       </c>
       <c r="E376" s="13" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B377" s="9" t="s">
+      <c r="A377" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B377" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C377" s="9">
-        <v>14</v>
-      </c>
-      <c r="D377" s="9">
+      <c r="C377" s="12">
+        <v>17</v>
+      </c>
+      <c r="D377" s="12">
         <v>58</v>
       </c>
-      <c r="E377" s="9" t="s">
-        <v>120</v>
+      <c r="E377" s="12" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B378" s="12" t="s">
         <v>31</v>
@@ -6636,15 +6642,15 @@
         <v>10</v>
       </c>
       <c r="D378" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E378" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="11" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B379" s="11" t="s">
         <v>29</v>
@@ -6656,12 +6662,12 @@
         <v>5</v>
       </c>
       <c r="E379" s="11" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B380" s="9" t="s">
         <v>31</v>
@@ -6673,18 +6679,18 @@
         <v>27</v>
       </c>
       <c r="E380" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="13" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B383" s="13" t="s">
         <v>20</v>
@@ -6693,15 +6699,15 @@
         <v>67</v>
       </c>
       <c r="D383" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E383" s="13" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B384" s="11" t="s">
         <v>23</v>
@@ -6713,12 +6719,12 @@
         <v>3</v>
       </c>
       <c r="E384" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="13" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B385" s="13" t="s">
         <v>20</v>
@@ -6735,41 +6741,41 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B386" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C386" s="13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D386" s="13">
         <v>5</v>
       </c>
       <c r="E386" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="11" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B387" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C387" s="11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D387" s="11">
         <v>6</v>
       </c>
       <c r="E387" s="11" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B388" s="9" t="s">
         <v>31</v>
@@ -6781,15 +6787,15 @@
         <v>13</v>
       </c>
       <c r="E388" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B389" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C389" s="9">
         <v>2</v>
@@ -6798,41 +6804,41 @@
         <v>26</v>
       </c>
       <c r="E389" s="9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="13" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B390" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C390" s="13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D390" s="13">
         <v>0</v>
       </c>
       <c r="E390" s="13" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B393" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C393" s="10">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D393" s="10">
         <v>22</v>
@@ -6842,25 +6848,25 @@
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A394" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B394" s="13" t="s">
+      <c r="A394" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B394" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C394" s="13">
-        <v>6</v>
-      </c>
-      <c r="D394" s="13">
-        <v>1</v>
-      </c>
-      <c r="E394" s="13" t="s">
-        <v>186</v>
+      <c r="C394" s="11">
+        <v>7</v>
+      </c>
+      <c r="D394" s="11">
+        <v>2</v>
+      </c>
+      <c r="E394" s="11" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B395" s="13" t="s">
         <v>34</v>
@@ -6872,35 +6878,35 @@
         <v>1</v>
       </c>
       <c r="E395" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="11" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B396" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C396" s="11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D396" s="11">
         <v>6</v>
       </c>
       <c r="E396" s="11" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B397" t="s">
         <v>31</v>
       </c>
       <c r="C397">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D397">
         <v>0</v>
@@ -6911,13 +6917,13 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B398" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C398">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D398">
         <v>0</v>
@@ -6927,65 +6933,65 @@
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A399" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B399" s="12" t="s">
+      <c r="A399" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B399" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C399" s="12">
-        <v>7</v>
-      </c>
-      <c r="D399" s="12">
+      <c r="C399" s="10">
+        <v>9</v>
+      </c>
+      <c r="D399" s="10">
         <v>12</v>
       </c>
-      <c r="E399" s="12" t="s">
-        <v>150</v>
+      <c r="E399" s="10" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="13" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B400" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C400" s="13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D400" s="13">
         <v>0</v>
       </c>
       <c r="E400" s="13" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
-        <v>88</v>
-      </c>
-      <c r="B403" t="s">
+      <c r="A403" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C403">
+      <c r="B403" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C403" s="11">
+        <v>3</v>
+      </c>
+      <c r="D403" s="11">
         <v>2</v>
       </c>
-      <c r="D403">
-        <v>2</v>
-      </c>
-      <c r="E403" t="s">
+      <c r="E403" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B404" t="s">
         <v>23</v>
@@ -6997,32 +7003,32 @@
         <v>1</v>
       </c>
       <c r="E404" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B405" s="13" t="s">
+      <c r="A405" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B405" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C405" s="13">
-        <v>12</v>
-      </c>
-      <c r="D405" s="13">
-        <v>2</v>
-      </c>
-      <c r="E405" s="13" t="s">
+      <c r="C405" s="11">
+        <v>17</v>
+      </c>
+      <c r="D405" s="11">
+        <v>7</v>
+      </c>
+      <c r="E405" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B406" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C406" s="10">
         <v>11</v>
@@ -7036,13 +7042,13 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B407" t="s">
         <v>29</v>
       </c>
       <c r="C407">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D407">
         <v>0</v>
@@ -7053,13 +7059,13 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B408" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C408">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D408">
         <v>0</v>
@@ -7070,7 +7076,7 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B409" t="s">
         <v>26</v>
@@ -7088,46 +7094,46 @@
     <row r="410" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B412" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C412" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D412" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E412" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B413" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C413" s="10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D413" s="10">
         <v>22</v>
       </c>
       <c r="E413" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B414" s="11" t="s">
         <v>31</v>
@@ -7144,13 +7150,13 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B415" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C415" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D415" s="10">
         <v>9</v>
@@ -7161,13 +7167,13 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B416" t="s">
         <v>29</v>
       </c>
       <c r="C416">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D416">
         <v>0</v>
@@ -7178,24 +7184,24 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B417" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C417" s="13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D417" s="13">
         <v>1</v>
       </c>
       <c r="E417" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B418" t="s">
         <v>26</v>
@@ -7212,7 +7218,7 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B419" s="12" t="s">
         <v>34</v>
@@ -7221,7 +7227,7 @@
         <v>7</v>
       </c>
       <c r="D419" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E419" s="12" t="s">
         <v>27</v>
@@ -7230,12 +7236,12 @@
     <row r="420" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B422" s="13" t="s">
         <v>20</v>
@@ -7247,7 +7253,7 @@
         <v>15</v>
       </c>
       <c r="E422" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
@@ -7269,7 +7275,7 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B424" s="11" t="s">
         <v>34</v>
@@ -7281,12 +7287,12 @@
         <v>4</v>
       </c>
       <c r="E424" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B425" s="12" t="s">
         <v>31</v>
@@ -7298,69 +7304,69 @@
         <v>18</v>
       </c>
       <c r="E425" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B426" s="13" t="s">
+      <c r="A426" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C426" s="13">
-        <v>23</v>
-      </c>
-      <c r="D426" s="13">
-        <v>5</v>
-      </c>
-      <c r="E426" s="13" t="s">
+      <c r="B426" s="11" t="s">
         <v>219</v>
+      </c>
+      <c r="C426" s="11">
+        <v>24</v>
+      </c>
+      <c r="D426" s="11">
+        <v>10</v>
+      </c>
+      <c r="E426" s="11" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="13" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B427" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C427" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D427" s="13">
         <v>0</v>
       </c>
       <c r="E427" s="13" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
-        <v>352</v>
-      </c>
-      <c r="B428" t="s">
+      <c r="A428" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B428" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C428">
-        <v>1</v>
-      </c>
-      <c r="D428">
-        <v>0</v>
-      </c>
-      <c r="E428" t="s">
+      <c r="C428" s="13">
+        <v>26</v>
+      </c>
+      <c r="D428" s="13">
+        <v>5</v>
+      </c>
+      <c r="E428" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B431" s="11" t="s">
         <v>20</v>
@@ -7372,12 +7378,12 @@
         <v>8</v>
       </c>
       <c r="E431" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B432" s="13" t="s">
         <v>20</v>
@@ -7389,12 +7395,12 @@
         <v>6</v>
       </c>
       <c r="E432" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B433" t="s">
         <v>40</v>
@@ -7411,7 +7417,7 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B434" s="12" t="s">
         <v>34</v>
@@ -7423,29 +7429,29 @@
         <v>16</v>
       </c>
       <c r="E434" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="13" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B435" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C435" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D435" s="13">
         <v>0</v>
       </c>
       <c r="E435" s="13" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B436" t="s">
         <v>31</v>
@@ -7461,28 +7467,28 @@
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
-        <v>352</v>
-      </c>
-      <c r="B437" t="s">
+      <c r="A437" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B437" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C437">
-        <v>1</v>
-      </c>
-      <c r="D437">
-        <v>0</v>
-      </c>
-      <c r="E437" t="s">
+      <c r="C437" s="13">
+        <v>26</v>
+      </c>
+      <c r="D437" s="13">
+        <v>5</v>
+      </c>
+      <c r="E437" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B438" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C438" s="10">
         <v>13</v>
@@ -7491,52 +7497,52 @@
         <v>19</v>
       </c>
       <c r="E438" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B441" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C441" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D441" s="10">
         <v>19</v>
       </c>
       <c r="E441" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B442" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C442" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D442" s="10">
         <v>29</v>
       </c>
       <c r="E442" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="12" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B443" s="12" t="s">
         <v>26</v>
@@ -7545,35 +7551,35 @@
         <v>5</v>
       </c>
       <c r="D443" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E443" s="12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B444" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C444" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D444" s="11">
         <v>23</v>
       </c>
       <c r="E444" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B445" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C445">
         <v>0</v>
@@ -7587,7 +7593,7 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B446" t="s">
         <v>29</v>
@@ -7604,33 +7610,33 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B447" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C447" s="13">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D447" s="13">
         <v>10</v>
       </c>
       <c r="E447" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="13" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B450" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C450" s="13">
         <v>87</v>
@@ -7639,12 +7645,12 @@
         <v>18</v>
       </c>
       <c r="E450" s="13" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B451" s="10" t="s">
         <v>23</v>
@@ -7656,12 +7662,12 @@
         <v>18</v>
       </c>
       <c r="E451" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="12" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B452" s="12" t="s">
         <v>26</v>
@@ -7670,15 +7676,15 @@
         <v>5</v>
       </c>
       <c r="D452" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E452" s="12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B453" s="12" t="s">
         <v>31</v>
@@ -7687,15 +7693,15 @@
         <v>10</v>
       </c>
       <c r="D453" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E453" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B454" s="10" t="s">
         <v>34</v>
@@ -7707,29 +7713,29 @@
         <v>8</v>
       </c>
       <c r="E454" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="9" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B455" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C455" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D455" s="9">
         <v>18</v>
       </c>
       <c r="E455" s="9" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="12" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B456" s="12" t="s">
         <v>29</v>
@@ -7741,15 +7747,15 @@
         <v>16</v>
       </c>
       <c r="E456" s="12" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B457" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C457" s="9">
         <v>5</v>
@@ -7758,7 +7764,7 @@
         <v>21</v>
       </c>
       <c r="E457" s="9" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25"/>

--- a/CSE-3.xlsx
+++ b/CSE-3.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="369">
   <si>
     <t>name</t>
   </si>
@@ -43,7 +43,7 @@
     <t/>
   </si>
   <si>
-    <t>Report generated on: 7/14/2024, 4:33:23 PM</t>
+    <t>Report generated on: 7/15/2024, 6:59:44 AM</t>
   </si>
   <si>
     <t>Just Avoid: If anyone found sharing of screenshot then that person id will be banned permanentally from kiit-connect and if anyone report about that person who has shared the screenshot can be rewarded Premium Membership and Some gift.</t>
@@ -286,6 +286,9 @@
     <t>["DS","AFL","DS(L)"]</t>
   </si>
   <si>
+    <t>["Best Teacher"]</t>
+  </si>
+  <si>
     <t>Pradeep Kumar Mallick</t>
   </si>
   <si>
@@ -295,6 +298,9 @@
     <t>Manas Ranjan Mohapatra</t>
   </si>
   <si>
+    <t>["Teaches pretty good if you're attentive in class and internals bhi ache dete h....sem exams me jitna deserve krte ho ekdm utna hi dete\n"]</t>
+  </si>
+  <si>
     <t>Sanhita Mishra</t>
   </si>
   <si>
@@ -505,12 +511,15 @@
     <t>Deependra Singh</t>
   </si>
   <si>
-    <t>["No 1 chutiya hai bhai mat lena nahi to regret hoga ","Teaches well, very friendly and gives good marks. The only negative is that he sometimes takes class tests with little to no warning. For example, we were told about our final OS lab test only the day before the exam, after he had explicitly told us the previous week that he wouldn't take it the following week."]</t>
+    <t>["No 1 chutiya hai bhai mat lena nahi to regret hoga ","Teaches well, very friendly and gives good marks. The only negative is that he sometimes takes class tests with little to no warning. For example, we were told about our final OS lab test only the day before the exam, after he had explicitly told us the previous week that he wouldn't take it the following week.","Inko lena mtlb khudke per me kuladhi marna\n","Not getting proper internal marks "]</t>
   </si>
   <si>
     <t>Naliniprava Behera</t>
   </si>
   <si>
+    <t>["Internal marks nhi milta aur paper bahut strict check hota h.","Not getting proper internal marks ","Strict checking"]</t>
+  </si>
+  <si>
     <t>Shruti</t>
   </si>
   <si>
@@ -544,7 +553,7 @@
     <t>Kartikeswar Mahalik</t>
   </si>
   <si>
-    <t>["He is indeed one hellish guy(mostly at the begining of the semester) but if you be absolutely pin drop silence in his class and submit quiz,assignment before hand he will give you good internal marks ,teaches okayish","Very average teacher, doesn't know the subject, doesn't give attendance, attending his class is very irritating "]</t>
+    <t>["He is indeed one hellish guy(mostly at the begining of the semester) but if you be absolutely pin drop silence in his class and submit quiz,assignment before hand he will give you good internal marks ,teaches okayish","Very average teacher, doesn't know the subject, doesn't give attendance, attending his class is very irritating ","Very strict teacher...internal marks pura kat denge...","Split checking ","Strict checking. "]</t>
   </si>
   <si>
     <t>Himanshu Ranjan</t>
@@ -1195,9 +1204,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1679,46 +1688,46 @@
         <v>23</v>
       </c>
       <c r="C22" s="10">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D22" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="11">
         <v>10</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="11">
         <v>10</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="12">
         <v>15</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="12">
         <v>6</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1733,7 +1742,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>32</v>
@@ -1763,19 +1772,19 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="12">
-        <v>7</v>
-      </c>
-      <c r="D29" s="12">
+      <c r="C29" s="10">
+        <v>8</v>
+      </c>
+      <c r="D29" s="10">
         <v>24</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1797,19 +1806,19 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="12">
         <v>17</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="12">
         <v>6</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1824,26 +1833,26 @@
         <v>5</v>
       </c>
       <c r="D32" s="10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="12">
-        <v>12</v>
-      </c>
-      <c r="D33" s="12">
-        <v>45</v>
-      </c>
-      <c r="E33" s="12" t="s">
+      <c r="C33" s="10">
+        <v>33</v>
+      </c>
+      <c r="D33" s="10">
+        <v>51</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1855,7 +1864,7 @@
         <v>26</v>
       </c>
       <c r="C34" s="13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D34" s="13">
         <v>5</v>
@@ -1865,19 +1874,19 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="12">
         <v>16</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="12">
         <v>10</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="12" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1888,36 +1897,36 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="10">
-        <v>2</v>
-      </c>
-      <c r="D38" s="10">
-        <v>3</v>
-      </c>
-      <c r="E38" s="10" t="s">
+      <c r="C38" s="11">
+        <v>12</v>
+      </c>
+      <c r="D38" s="11">
+        <v>13</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="10">
         <v>15</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="10">
         <v>36</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1929,7 +1938,7 @@
         <v>34</v>
       </c>
       <c r="C40" s="13">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D40" s="13">
         <v>1</v>
@@ -1939,36 +1948,36 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="10">
         <v>4</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="10">
         <v>7</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="11">
         <v>7</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="11">
         <v>9</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2006,77 +2015,77 @@
         <v>1</v>
       </c>
       <c r="D46" s="9">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="12">
-        <v>6</v>
-      </c>
-      <c r="D47" s="12">
-        <v>23</v>
-      </c>
-      <c r="E47" s="12" t="s">
+      <c r="C47" s="10">
+        <v>7</v>
+      </c>
+      <c r="D47" s="10">
+        <v>24</v>
+      </c>
+      <c r="E47" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="10">
-        <v>46</v>
-      </c>
-      <c r="D48" s="10">
+      <c r="C48" s="12">
+        <v>61</v>
+      </c>
+      <c r="D48" s="12">
         <v>33</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="11">
         <v>11</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="11">
         <v>15</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="12">
         <v>16</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="12">
         <v>5</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2121,53 +2130,53 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="10">
         <v>14</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="10">
         <v>38</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E55" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="12">
         <v>33</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="12">
         <v>14</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="10">
         <v>5</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="10">
         <v>17</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="10" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2206,19 +2215,19 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="11">
-        <v>35</v>
-      </c>
-      <c r="D60" s="11">
+      <c r="C60" s="12">
+        <v>36</v>
+      </c>
+      <c r="D60" s="12">
         <v>14</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="12" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2229,76 +2238,76 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63" s="12">
+        <v>18</v>
+      </c>
+      <c r="D63" s="12">
+        <v>7</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="12">
+        <v>37</v>
+      </c>
+      <c r="D64" s="12">
+        <v>15</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="12">
+        <v>11</v>
+      </c>
+      <c r="D65" s="12">
+        <v>6</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="10">
         <v>3</v>
       </c>
-      <c r="D63" s="11">
-        <v>2</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" s="11">
-        <v>37</v>
-      </c>
-      <c r="D64" s="11">
-        <v>15</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" s="11">
-        <v>10</v>
-      </c>
-      <c r="D65" s="11">
-        <v>6</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>94</v>
-      </c>
-      <c r="B66" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66">
-        <v>3</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="D66" s="10">
+        <v>11</v>
+      </c>
+      <c r="E66" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>31</v>
@@ -2307,15 +2316,15 @@
         <v>3</v>
       </c>
       <c r="D67" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>26</v>
@@ -2327,12 +2336,12 @@
         <v>5</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B69" t="s">
         <v>67</v>
@@ -2350,23 +2359,23 @@
     <row r="70" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="12">
+      <c r="C72" s="10">
         <v>14</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D72" s="10">
         <v>38</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="E72" s="10" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2378,10 +2387,10 @@
         <v>23</v>
       </c>
       <c r="C73" s="10">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D73" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>24</v>
@@ -2389,10 +2398,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C74" s="9">
         <v>6</v>
@@ -2401,63 +2410,63 @@
         <v>42</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C75" s="13">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D75" s="13">
         <v>3</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C76" s="13">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D76" s="13">
         <v>1</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B77" s="12" t="s">
+      <c r="A77" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="12">
-        <v>10</v>
-      </c>
-      <c r="D77" s="12">
+      <c r="C77" s="10">
+        <v>11</v>
+      </c>
+      <c r="D77" s="10">
         <v>18</v>
       </c>
-      <c r="E77" s="12" t="s">
-        <v>109</v>
+      <c r="E77" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B78" t="s">
         <v>29</v>
@@ -2473,48 +2482,48 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B79" s="11" t="s">
+      <c r="A79" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B79" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="11">
+      <c r="C79" s="12">
         <v>18</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D79" s="12">
         <v>7</v>
       </c>
-      <c r="E79" s="11" t="s">
-        <v>112</v>
+      <c r="E79" s="12" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B82" s="11" t="s">
+      <c r="A82" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B82" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="11">
+      <c r="C82" s="12">
         <v>31</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D82" s="12">
         <v>11</v>
       </c>
-      <c r="E82" s="11" t="s">
-        <v>115</v>
+      <c r="E82" s="12" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>40</v>
@@ -2526,63 +2535,63 @@
         <v>4</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B84" s="10" t="s">
+      <c r="A84" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B84" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C84" s="10">
+      <c r="C84" s="11">
         <v>26</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D84" s="11">
         <v>18</v>
       </c>
-      <c r="E84" s="10" t="s">
-        <v>119</v>
+      <c r="E84" s="11" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B85" s="12" t="s">
+      <c r="A85" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B85" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="12">
+      <c r="C85" s="10">
         <v>17</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D85" s="10">
         <v>58</v>
       </c>
-      <c r="E85" s="12" t="s">
-        <v>121</v>
+      <c r="E85" s="10" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B86" s="11" t="s">
+      <c r="A86" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B86" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C86" s="11">
+      <c r="C86" s="12">
         <v>33</v>
       </c>
-      <c r="D86" s="11">
-        <v>11</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>123</v>
+      <c r="D86" s="12">
+        <v>12</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B87" t="s">
         <v>26</v>
@@ -2598,65 +2607,65 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B88" s="11" t="s">
+      <c r="A88" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B88" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C88" s="11">
-        <v>3</v>
-      </c>
-      <c r="D88" s="11">
-        <v>2</v>
-      </c>
-      <c r="E88" s="11" t="s">
+      <c r="C88" s="12">
+        <v>23</v>
+      </c>
+      <c r="D88" s="12">
+        <v>7</v>
+      </c>
+      <c r="E88" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B91" s="10" t="s">
+      <c r="A91" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B91" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C91" s="10">
+      <c r="C91" s="11">
         <v>21</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D91" s="11">
         <v>21</v>
       </c>
-      <c r="E91" s="10" t="s">
-        <v>128</v>
+      <c r="E91" s="11" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B92" s="12" t="s">
+      <c r="A92" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B92" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C92" s="12">
+      <c r="C92" s="10">
         <v>10</v>
       </c>
-      <c r="D92" s="12">
+      <c r="D92" s="10">
         <v>34</v>
       </c>
-      <c r="E92" s="12" t="s">
-        <v>130</v>
+      <c r="E92" s="10" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>34</v>
@@ -2668,29 +2677,29 @@
         <v>5</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B94" s="11" t="s">
+      <c r="A94" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B94" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C94" s="11">
+      <c r="C94" s="12">
         <v>14</v>
       </c>
-      <c r="D94" s="11">
+      <c r="D94" s="12">
         <v>8</v>
       </c>
-      <c r="E94" s="11" t="s">
+      <c r="E94" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B95" t="s">
         <v>26</v>
@@ -2706,48 +2715,48 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B96" s="11" t="s">
+      <c r="A96" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B96" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C96" s="11">
-        <v>3</v>
-      </c>
-      <c r="D96" s="11">
-        <v>2</v>
-      </c>
-      <c r="E96" s="11" t="s">
+      <c r="C96" s="12">
+        <v>23</v>
+      </c>
+      <c r="D96" s="12">
+        <v>7</v>
+      </c>
+      <c r="E96" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B99" s="10" t="s">
+      <c r="A99" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B99" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C99" s="10">
-        <v>21</v>
-      </c>
-      <c r="D99" s="10">
+      <c r="C99" s="11">
+        <v>22</v>
+      </c>
+      <c r="D99" s="11">
         <v>19</v>
       </c>
-      <c r="E99" s="10" t="s">
-        <v>137</v>
+      <c r="E99" s="11" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B100" s="13" t="s">
         <v>20</v>
@@ -2759,35 +2768,35 @@
         <v>6</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B101" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C101" s="13">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D101" s="13">
         <v>1</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B102" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C102" s="12">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D102" s="12">
         <v>12</v>
@@ -2797,19 +2806,19 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
+      <c r="A103" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C103" s="12">
-        <v>12</v>
-      </c>
-      <c r="D103" s="12">
-        <v>45</v>
-      </c>
-      <c r="E103" s="12" t="s">
+      <c r="C103" s="10">
+        <v>33</v>
+      </c>
+      <c r="D103" s="10">
+        <v>51</v>
+      </c>
+      <c r="E103" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2821,7 +2830,7 @@
         <v>26</v>
       </c>
       <c r="C104" s="13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D104" s="13">
         <v>5</v>
@@ -2832,7 +2841,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B105" s="10" t="s">
         <v>67</v>
@@ -2841,72 +2850,72 @@
         <v>13</v>
       </c>
       <c r="D105" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B108" s="10" t="s">
+      <c r="A108" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B108" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C108" s="10">
+      <c r="C108" s="11">
         <v>21</v>
       </c>
-      <c r="D108" s="10">
+      <c r="D108" s="11">
         <v>21</v>
       </c>
-      <c r="E108" s="10" t="s">
-        <v>128</v>
+      <c r="E108" s="11" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B109" s="10" t="s">
+      <c r="A109" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B109" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C109" s="10">
+      <c r="C109" s="11">
         <v>13</v>
       </c>
-      <c r="D109" s="10">
+      <c r="D109" s="11">
         <v>14</v>
       </c>
-      <c r="E109" s="10" t="s">
-        <v>147</v>
+      <c r="E109" s="11" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B110" s="11" t="s">
+      <c r="A110" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B110" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C110" s="11">
-        <v>17</v>
-      </c>
-      <c r="D110" s="11">
+      <c r="C110" s="12">
+        <v>18</v>
+      </c>
+      <c r="D110" s="12">
         <v>7</v>
       </c>
-      <c r="E110" s="11" t="s">
+      <c r="E110" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B111" t="s">
         <v>29</v>
@@ -2922,25 +2931,25 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B112" s="10" t="s">
+      <c r="A112" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B112" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C112" s="10">
+      <c r="C112" s="11">
         <v>9</v>
       </c>
-      <c r="D112" s="10">
+      <c r="D112" s="11">
         <v>12</v>
       </c>
-      <c r="E112" s="10" t="s">
-        <v>151</v>
+      <c r="E112" s="11" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B113" t="s">
         <v>27</v>
@@ -2958,29 +2967,29 @@
     <row r="114" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B116" s="12" t="s">
+      <c r="A116" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B116" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C116" s="12">
+      <c r="C116" s="10">
         <v>5</v>
       </c>
-      <c r="D116" s="12">
-        <v>14</v>
-      </c>
-      <c r="E116" s="12" t="s">
+      <c r="D116" s="10">
+        <v>15</v>
+      </c>
+      <c r="E116" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B117" s="13" t="s">
         <v>20</v>
@@ -2992,262 +3001,262 @@
         <v>0</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B118" s="10" t="s">
+      <c r="A118" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B118" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C118" s="10">
+      <c r="C118" s="11">
         <v>13</v>
       </c>
-      <c r="D118" s="10">
+      <c r="D118" s="11">
         <v>14</v>
       </c>
-      <c r="E118" s="10" t="s">
-        <v>147</v>
+      <c r="E118" s="11" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B119" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C119" s="13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D119" s="13">
         <v>0</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B120" s="11" t="s">
+      <c r="A120" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B120" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C120" s="11">
+      <c r="C120" s="12">
         <v>24</v>
       </c>
-      <c r="D120" s="11">
+      <c r="D120" s="12">
         <v>16</v>
       </c>
-      <c r="E120" s="11" t="s">
-        <v>160</v>
+      <c r="E120" s="12" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B121" s="12" t="s">
+      <c r="A121" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B121" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C121" s="12">
+      <c r="C121" s="10">
         <v>7</v>
       </c>
-      <c r="D121" s="12">
+      <c r="D121" s="10">
         <v>14</v>
       </c>
-      <c r="E121" s="12" t="s">
+      <c r="E121" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" s="12">
+        <v>27</v>
+      </c>
+      <c r="D124" s="12">
+        <v>12</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C125" s="10">
+        <v>3</v>
+      </c>
+      <c r="D125" s="10">
+        <v>5</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C126" s="10">
+        <v>11</v>
+      </c>
+      <c r="D126" s="10">
+        <v>41</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C127" s="12">
+        <v>14</v>
+      </c>
+      <c r="D127" s="12">
+        <v>4</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C128" s="12">
+        <v>15</v>
+      </c>
+      <c r="D128" s="12">
+        <v>6</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C129" s="12">
+        <v>24</v>
+      </c>
+      <c r="D129" s="12">
+        <v>16</v>
+      </c>
+      <c r="E129" s="12" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C124" s="11">
-        <v>27</v>
-      </c>
-      <c r="D124" s="11">
-        <v>8</v>
-      </c>
-      <c r="E124" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>165</v>
-      </c>
-      <c r="B125" t="s">
-        <v>40</v>
-      </c>
-      <c r="C125">
-        <v>3</v>
-      </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-      <c r="E125" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C126" s="12">
-        <v>10</v>
-      </c>
-      <c r="D126" s="12">
-        <v>41</v>
-      </c>
-      <c r="E126" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C127" s="11">
-        <v>13</v>
-      </c>
-      <c r="D127" s="11">
-        <v>4</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C128" s="11">
-        <v>15</v>
-      </c>
-      <c r="D128" s="11">
-        <v>6</v>
-      </c>
-      <c r="E128" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C129" s="11">
-        <v>24</v>
-      </c>
-      <c r="D129" s="11">
-        <v>16</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B132" s="12" t="s">
+      <c r="A132" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B132" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C132" s="12">
+      <c r="C132" s="10">
         <v>11</v>
       </c>
-      <c r="D132" s="12">
+      <c r="D132" s="10">
         <v>45</v>
       </c>
-      <c r="E132" s="12" t="s">
-        <v>172</v>
+      <c r="E132" s="10" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B133" s="10" t="s">
+      <c r="A133" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B133" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C133" s="10">
+      <c r="C133" s="11">
         <v>34</v>
       </c>
-      <c r="D133" s="10">
+      <c r="D133" s="11">
         <v>29</v>
       </c>
-      <c r="E133" s="10" t="s">
-        <v>174</v>
+      <c r="E133" s="11" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="B134" s="11" t="s">
+      <c r="A134" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B134" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C134" s="11">
-        <v>11</v>
-      </c>
-      <c r="D134" s="11">
+      <c r="C134" s="12">
+        <v>12</v>
+      </c>
+      <c r="D134" s="12">
         <v>5</v>
       </c>
-      <c r="E134" s="11" t="s">
+      <c r="E134" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B135" s="12" t="s">
+      <c r="A135" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B135" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C135" s="12">
+      <c r="C135" s="10">
         <v>6</v>
       </c>
-      <c r="D135" s="12">
-        <v>16</v>
-      </c>
-      <c r="E135" s="12" t="s">
-        <v>177</v>
+      <c r="D135" s="10">
+        <v>20</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B136" t="s">
         <v>20</v>
@@ -3264,7 +3273,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B137" t="s">
         <v>29</v>
@@ -3281,7 +3290,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>31</v>
@@ -3290,15 +3299,15 @@
         <v>0</v>
       </c>
       <c r="D138" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B139" t="s">
         <v>67</v>
@@ -3316,97 +3325,97 @@
     <row r="140" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C142" s="10">
+      <c r="A142" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C142" s="11">
         <v>31</v>
       </c>
-      <c r="D142" s="10">
+      <c r="D142" s="11">
         <v>22</v>
       </c>
-      <c r="E142" s="10" t="s">
-        <v>185</v>
+      <c r="E142" s="11" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="B143" s="11" t="s">
+      <c r="A143" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B143" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C143" s="11">
+      <c r="C143" s="12">
         <v>7</v>
       </c>
-      <c r="D143" s="11">
+      <c r="D143" s="12">
         <v>2</v>
       </c>
-      <c r="E143" s="11" t="s">
-        <v>187</v>
+      <c r="E143" s="12" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="B144" s="11" t="s">
+      <c r="A144" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B144" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C144" s="11">
-        <v>11</v>
-      </c>
-      <c r="D144" s="11">
+      <c r="C144" s="12">
+        <v>12</v>
+      </c>
+      <c r="D144" s="12">
         <v>5</v>
       </c>
-      <c r="E144" s="11" t="s">
+      <c r="E144" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B145" s="11" t="s">
+      <c r="A145" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B145" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C145" s="11">
-        <v>52</v>
-      </c>
-      <c r="D145" s="11">
+      <c r="C145" s="12">
+        <v>53</v>
+      </c>
+      <c r="D145" s="12">
         <v>23</v>
       </c>
-      <c r="E145" s="11" t="s">
-        <v>189</v>
+      <c r="E145" s="12" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B146" s="11" t="s">
+      <c r="A146" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B146" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C146" s="11">
+      <c r="C146" s="12">
         <v>33</v>
       </c>
-      <c r="D146" s="11">
-        <v>11</v>
-      </c>
-      <c r="E146" s="11" t="s">
-        <v>123</v>
+      <c r="D146" s="12">
+        <v>12</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>31</v>
@@ -3415,15 +3424,15 @@
         <v>0</v>
       </c>
       <c r="D147" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B148" s="10" t="s">
         <v>67</v>
@@ -3432,72 +3441,72 @@
         <v>13</v>
       </c>
       <c r="D148" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C151" s="10">
+      <c r="A151" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C151" s="11">
         <v>26</v>
       </c>
-      <c r="D151" s="10">
+      <c r="D151" s="11">
         <v>22</v>
       </c>
-      <c r="E151" s="10" t="s">
+      <c r="E151" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="B152" s="11" t="s">
+      <c r="A152" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B152" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C152" s="11">
+      <c r="C152" s="12">
         <v>3</v>
       </c>
-      <c r="D152" s="11">
+      <c r="D152" s="12">
         <v>2</v>
       </c>
-      <c r="E152" s="11" t="s">
-        <v>193</v>
+      <c r="E152" s="12" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="B153" s="11" t="s">
+      <c r="A153" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B153" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C153" s="11">
-        <v>32</v>
-      </c>
-      <c r="D153" s="11">
-        <v>10</v>
-      </c>
-      <c r="E153" s="11" t="s">
-        <v>195</v>
+      <c r="C153" s="12">
+        <v>33</v>
+      </c>
+      <c r="D153" s="12">
+        <v>11</v>
+      </c>
+      <c r="E153" s="12" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B154" s="13" t="s">
         <v>26</v>
@@ -3509,46 +3518,46 @@
         <v>6</v>
       </c>
       <c r="E154" s="13" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B155" s="12" t="s">
+      <c r="A155" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B155" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C155" s="12">
+      <c r="C155" s="10">
         <v>11</v>
       </c>
-      <c r="D155" s="12">
-        <v>27</v>
-      </c>
-      <c r="E155" s="12" t="s">
+      <c r="D155" s="10">
+        <v>27</v>
+      </c>
+      <c r="E155" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B156" s="10" t="s">
+      <c r="A156" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B156" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C156" s="10">
+      <c r="C156" s="11">
         <v>6</v>
       </c>
-      <c r="D156" s="10">
+      <c r="D156" s="11">
         <v>8</v>
       </c>
-      <c r="E156" s="10" t="s">
-        <v>200</v>
+      <c r="E156" s="11" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B157" t="s">
         <v>29</v>
@@ -3564,82 +3573,82 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B158" s="11" t="s">
+      <c r="A158" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B158" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C158" s="11">
-        <v>3</v>
-      </c>
-      <c r="D158" s="11">
-        <v>2</v>
-      </c>
-      <c r="E158" s="11" t="s">
+      <c r="C158" s="12">
+        <v>23</v>
+      </c>
+      <c r="D158" s="12">
+        <v>7</v>
+      </c>
+      <c r="E158" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B161" s="11" t="s">
+      <c r="A161" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B161" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C161" s="11">
+      <c r="C161" s="12">
         <v>5</v>
       </c>
-      <c r="D161" s="11">
+      <c r="D161" s="12">
         <v>3</v>
       </c>
-      <c r="E161" s="11" t="s">
-        <v>204</v>
+      <c r="E161" s="12" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B162" s="11" t="s">
+      <c r="A162" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B162" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C162" s="11">
+      <c r="C162" s="12">
         <v>19</v>
       </c>
-      <c r="D162" s="11">
+      <c r="D162" s="12">
         <v>6</v>
       </c>
-      <c r="E162" s="11" t="s">
-        <v>206</v>
+      <c r="E162" s="12" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B163" s="11" t="s">
+      <c r="A163" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B163" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C163" s="11">
+      <c r="C163" s="12">
         <v>31</v>
       </c>
-      <c r="D163" s="11">
+      <c r="D163" s="12">
         <v>17</v>
       </c>
-      <c r="E163" s="11" t="s">
+      <c r="E163" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B164" s="13" t="s">
         <v>26</v>
@@ -3651,24 +3660,24 @@
         <v>6</v>
       </c>
       <c r="E164" s="13" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C165" s="10">
+      <c r="A165" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C165" s="11">
         <v>15</v>
       </c>
-      <c r="D165" s="10">
+      <c r="D165" s="11">
         <v>13</v>
       </c>
-      <c r="E165" s="10" t="s">
-        <v>210</v>
+      <c r="E165" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -3691,29 +3700,29 @@
     <row r="167" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B169" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C169" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D169" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B170" s="13" t="s">
         <v>20</v>
@@ -3725,120 +3734,120 @@
         <v>11</v>
       </c>
       <c r="E170" s="13" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="B171" s="11" t="s">
+      <c r="A171" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B171" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C171" s="11">
+      <c r="C171" s="12">
         <v>12</v>
       </c>
-      <c r="D171" s="11">
+      <c r="D171" s="12">
         <v>7</v>
       </c>
-      <c r="E171" s="11" t="s">
-        <v>217</v>
+      <c r="E171" s="12" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="10" t="s">
+      <c r="A172" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B172" s="10" t="s">
+      <c r="B172" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C172" s="10">
+      <c r="C172" s="11">
         <v>11</v>
       </c>
-      <c r="D172" s="10">
+      <c r="D172" s="11">
         <v>15</v>
       </c>
-      <c r="E172" s="10" t="s">
+      <c r="E172" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="B173" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C173" s="11">
-        <v>24</v>
-      </c>
-      <c r="D173" s="11">
+      <c r="A173" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C173" s="12">
+        <v>25</v>
+      </c>
+      <c r="D173" s="12">
         <v>10</v>
       </c>
-      <c r="E173" s="11" t="s">
-        <v>220</v>
+      <c r="E173" s="12" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>221</v>
-      </c>
-      <c r="B174" t="s">
-        <v>222</v>
-      </c>
-      <c r="C174">
-        <v>0</v>
-      </c>
-      <c r="D174">
-        <v>0</v>
-      </c>
-      <c r="E174" t="s">
+      <c r="A174" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C174" s="12">
+        <v>21</v>
+      </c>
+      <c r="D174" s="12">
+        <v>10</v>
+      </c>
+      <c r="E174" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="11" t="s">
+      <c r="A175" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B175" s="11" t="s">
+      <c r="B175" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C175" s="11">
+      <c r="C175" s="12">
         <v>16</v>
       </c>
-      <c r="D175" s="11">
+      <c r="D175" s="12">
         <v>10</v>
       </c>
-      <c r="E175" s="11" t="s">
+      <c r="E175" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="B178" s="11" t="s">
+      <c r="A178" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B178" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C178" s="11">
+      <c r="C178" s="12">
         <v>30</v>
       </c>
-      <c r="D178" s="11">
+      <c r="D178" s="12">
         <v>14</v>
       </c>
-      <c r="E178" s="11" t="s">
-        <v>225</v>
+      <c r="E178" s="12" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B179" t="s">
         <v>23</v>
@@ -3850,24 +3859,24 @@
         <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="B180" s="12" t="s">
+      <c r="A180" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B180" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C180" s="12">
+      <c r="C180" s="10">
         <v>13</v>
       </c>
-      <c r="D180" s="12">
+      <c r="D180" s="10">
         <v>21</v>
       </c>
-      <c r="E180" s="12" t="s">
-        <v>229</v>
+      <c r="E180" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -3878,7 +3887,7 @@
         <v>34</v>
       </c>
       <c r="C181" s="13">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D181" s="13">
         <v>1</v>
@@ -3888,28 +3897,28 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="B182" s="11" t="s">
+      <c r="A182" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B182" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C182" s="11">
+      <c r="C182" s="12">
         <v>12</v>
       </c>
-      <c r="D182" s="11">
+      <c r="D182" s="12">
         <v>7</v>
       </c>
-      <c r="E182" s="11" t="s">
-        <v>217</v>
+      <c r="E182" s="12" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C183" s="9">
         <v>2</v>
@@ -3918,12 +3927,12 @@
         <v>55</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B184" s="9" t="s">
         <v>31</v>
@@ -3932,89 +3941,89 @@
         <v>0</v>
       </c>
       <c r="D184" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B185" s="11" t="s">
+      <c r="A185" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B185" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C185" s="11">
-        <v>3</v>
-      </c>
-      <c r="D185" s="11">
-        <v>2</v>
-      </c>
-      <c r="E185" s="11" t="s">
+      <c r="C185" s="12">
+        <v>23</v>
+      </c>
+      <c r="D185" s="12">
+        <v>7</v>
+      </c>
+      <c r="E185" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="B188" s="11" t="s">
+      <c r="A188" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B188" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C188" s="11">
-        <v>37</v>
-      </c>
-      <c r="D188" s="11">
+      <c r="C188" s="12">
+        <v>38</v>
+      </c>
+      <c r="D188" s="12">
         <v>14</v>
       </c>
-      <c r="E188" s="11" t="s">
-        <v>234</v>
+      <c r="E188" s="12" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="10" t="s">
+      <c r="A189" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B189" s="10" t="s">
+      <c r="B189" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C189" s="10">
-        <v>46</v>
-      </c>
-      <c r="D189" s="10">
+      <c r="C189" s="12">
+        <v>61</v>
+      </c>
+      <c r="D189" s="12">
         <v>33</v>
       </c>
-      <c r="E189" s="10" t="s">
+      <c r="E189" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="B190" s="11" t="s">
+      <c r="A190" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B190" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C190" s="11">
+      <c r="C190" s="12">
         <v>12</v>
       </c>
-      <c r="D190" s="11">
+      <c r="D190" s="12">
         <v>7</v>
       </c>
-      <c r="E190" s="11" t="s">
-        <v>217</v>
+      <c r="E190" s="12" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="13" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B191" s="13" t="s">
         <v>23</v>
@@ -4031,10 +4040,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C192" s="9">
         <v>2</v>
@@ -4043,12 +4052,12 @@
         <v>55</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B193" t="s">
         <v>70</v>
@@ -4065,7 +4074,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B194" t="s">
         <v>67</v>
@@ -4083,63 +4092,63 @@
     <row r="195" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="B197" s="11" t="s">
+      <c r="A197" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B197" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C197" s="11">
+      <c r="C197" s="12">
         <v>6</v>
       </c>
-      <c r="D197" s="11">
+      <c r="D197" s="12">
         <v>3</v>
       </c>
-      <c r="E197" s="11" t="s">
-        <v>240</v>
+      <c r="E197" s="12" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B198" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C198" s="13">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D198" s="13">
         <v>3</v>
       </c>
       <c r="E198" s="13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="B199" s="11" t="s">
+      <c r="A199" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B199" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C199" s="11">
+      <c r="C199" s="12">
         <v>49</v>
       </c>
-      <c r="D199" s="11">
+      <c r="D199" s="12">
         <v>24</v>
       </c>
-      <c r="E199" s="11" t="s">
-        <v>242</v>
+      <c r="E199" s="12" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B200" s="13" t="s">
         <v>23</v>
@@ -4151,29 +4160,29 @@
         <v>1</v>
       </c>
       <c r="E200" s="13" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>245</v>
-      </c>
-      <c r="B201" t="s">
+      <c r="A201" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B201" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C201">
-        <v>1</v>
-      </c>
-      <c r="D201">
-        <v>1</v>
-      </c>
-      <c r="E201" t="s">
+      <c r="C201" s="12">
+        <v>21</v>
+      </c>
+      <c r="D201" s="12">
+        <v>6</v>
+      </c>
+      <c r="E201" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B202" s="10" t="s">
         <v>67</v>
@@ -4182,89 +4191,89 @@
         <v>13</v>
       </c>
       <c r="D202" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="11" t="s">
+      <c r="A203" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B203" s="11" t="s">
+      <c r="B203" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C203" s="11">
-        <v>35</v>
-      </c>
-      <c r="D203" s="11">
+      <c r="C203" s="12">
+        <v>36</v>
+      </c>
+      <c r="D203" s="12">
         <v>14</v>
       </c>
-      <c r="E203" s="11" t="s">
+      <c r="E203" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="B206" s="12" t="s">
+      <c r="A206" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B206" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C206" s="12">
+      <c r="C206" s="10">
         <v>14</v>
       </c>
-      <c r="D206" s="12">
+      <c r="D206" s="10">
         <v>29</v>
       </c>
-      <c r="E206" s="12" t="s">
-        <v>248</v>
+      <c r="E206" s="10" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B207" s="11" t="s">
+      <c r="A207" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B207" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="11">
-        <v>10</v>
-      </c>
-      <c r="D207" s="11">
+      <c r="C207" s="12">
+        <v>11</v>
+      </c>
+      <c r="D207" s="12">
         <v>6</v>
       </c>
-      <c r="E207" s="11" t="s">
-        <v>27</v>
+      <c r="E207" s="12" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="B208" s="12" t="s">
+      <c r="A208" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B208" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C208" s="12">
+      <c r="C208" s="10">
         <v>3</v>
       </c>
-      <c r="D208" s="12">
+      <c r="D208" s="10">
         <v>9</v>
       </c>
-      <c r="E208" s="12" t="s">
-        <v>250</v>
+      <c r="E208" s="10" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B209" t="s">
         <v>20</v>
@@ -4280,20 +4289,20 @@
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="B210" s="11" t="s">
+      <c r="A210" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B210" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C210" s="11">
+      <c r="C210" s="12">
         <v>49</v>
       </c>
-      <c r="D210" s="11">
+      <c r="D210" s="12">
         <v>24</v>
       </c>
-      <c r="E210" s="11" t="s">
-        <v>242</v>
+      <c r="E210" s="12" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -4307,7 +4316,7 @@
         <v>5</v>
       </c>
       <c r="D211" s="10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E211" s="10" t="s">
         <v>32</v>
@@ -4315,7 +4324,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B212" t="s">
         <v>70</v>
@@ -4333,80 +4342,80 @@
     <row r="213" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="B215" s="13" t="s">
+      <c r="A215" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B215" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C215" s="13">
-        <v>6</v>
-      </c>
-      <c r="D215" s="13">
-        <v>1</v>
-      </c>
-      <c r="E215" s="13" t="s">
-        <v>253</v>
+      <c r="C215" s="12">
+        <v>26</v>
+      </c>
+      <c r="D215" s="12">
+        <v>11</v>
+      </c>
+      <c r="E215" s="12" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="B216" s="10" t="s">
+      <c r="A216" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B216" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C216" s="10">
+      <c r="C216" s="11">
         <v>13</v>
       </c>
-      <c r="D216" s="10">
+      <c r="D216" s="11">
         <v>18</v>
       </c>
-      <c r="E216" s="10" t="s">
-        <v>255</v>
+      <c r="E216" s="11" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B217" s="12" t="s">
+      <c r="A217" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B217" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C217" s="12">
+      <c r="C217" s="10">
         <v>11</v>
       </c>
-      <c r="D217" s="12">
-        <v>27</v>
-      </c>
-      <c r="E217" s="12" t="s">
+      <c r="D217" s="10">
+        <v>27</v>
+      </c>
+      <c r="E217" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B218" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C218" s="13">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D218" s="13">
         <v>1</v>
       </c>
       <c r="E218" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B219" t="s">
         <v>20</v>
@@ -4422,25 +4431,25 @@
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B220" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C220" s="10">
+      <c r="A220" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B220" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C220" s="11">
         <v>15</v>
       </c>
-      <c r="D220" s="10">
+      <c r="D220" s="11">
         <v>13</v>
       </c>
-      <c r="E220" s="10" t="s">
-        <v>210</v>
+      <c r="E220" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B221" t="s">
         <v>31</v>
@@ -4456,116 +4465,116 @@
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="B222" s="12" t="s">
+      <c r="A222" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B222" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C222" s="12">
+      <c r="C222" s="10">
         <v>20</v>
       </c>
-      <c r="D222" s="12">
+      <c r="D222" s="10">
         <v>35</v>
       </c>
-      <c r="E222" s="12" t="s">
+      <c r="E222" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="13" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B225" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C225" s="13">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D225" s="13">
         <v>15</v>
       </c>
       <c r="E225" s="13" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="B226" s="11" t="s">
+      <c r="A226" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B226" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C226" s="11">
+      <c r="C226" s="12">
         <v>8</v>
       </c>
-      <c r="D226" s="11">
+      <c r="D226" s="12">
         <v>3</v>
       </c>
-      <c r="E226" s="11" t="s">
+      <c r="E226" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B227" s="12" t="s">
+      <c r="A227" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B227" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C227" s="12">
+      <c r="C227" s="10">
         <v>17</v>
       </c>
-      <c r="D227" s="12">
+      <c r="D227" s="10">
         <v>58</v>
       </c>
-      <c r="E227" s="12" t="s">
-        <v>121</v>
+      <c r="E227" s="10" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B228" s="12" t="s">
+      <c r="A228" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B228" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C228" s="12">
-        <v>10</v>
-      </c>
-      <c r="D228" s="12">
+      <c r="C228" s="10">
+        <v>11</v>
+      </c>
+      <c r="D228" s="10">
         <v>18</v>
       </c>
-      <c r="E228" s="12" t="s">
-        <v>109</v>
+      <c r="E228" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B229" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C229" s="10">
+      <c r="A229" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C229" s="11">
         <v>15</v>
       </c>
-      <c r="D229" s="10">
+      <c r="D229" s="11">
         <v>13</v>
       </c>
-      <c r="E229" s="10" t="s">
-        <v>210</v>
+      <c r="E229" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B230" t="s">
         <v>23</v>
@@ -4582,7 +4591,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B231" t="s">
         <v>26</v>
@@ -4600,80 +4609,80 @@
     <row r="232" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="11" t="s">
+      <c r="A234" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B234" s="11" t="s">
+      <c r="B234" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C234" s="11">
-        <v>3</v>
-      </c>
-      <c r="D234" s="11">
-        <v>2</v>
-      </c>
-      <c r="E234" s="11" t="s">
-        <v>27</v>
+      <c r="C234" s="12">
+        <v>18</v>
+      </c>
+      <c r="D234" s="12">
+        <v>7</v>
+      </c>
+      <c r="E234" s="12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="B235" s="10" t="s">
+      <c r="A235" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B235" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C235" s="10">
+      <c r="C235" s="11">
         <v>20</v>
       </c>
-      <c r="D235" s="10">
+      <c r="D235" s="11">
         <v>14</v>
       </c>
-      <c r="E235" s="10" t="s">
-        <v>267</v>
+      <c r="E235" s="11" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B236" s="10" t="s">
+      <c r="A236" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B236" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C236" s="10">
+      <c r="C236" s="11">
         <v>26</v>
       </c>
-      <c r="D236" s="10">
+      <c r="D236" s="11">
         <v>18</v>
       </c>
-      <c r="E236" s="10" t="s">
-        <v>119</v>
+      <c r="E236" s="11" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B237" s="11" t="s">
+      <c r="A237" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B237" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C237" s="11">
+      <c r="C237" s="12">
         <v>31</v>
       </c>
-      <c r="D237" s="11">
+      <c r="D237" s="12">
         <v>17</v>
       </c>
-      <c r="E237" s="11" t="s">
+      <c r="E237" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B238" s="13" t="s">
         <v>34</v>
@@ -4685,29 +4694,29 @@
         <v>5</v>
       </c>
       <c r="E238" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="B239" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C239" s="11">
-        <v>24</v>
-      </c>
-      <c r="D239" s="11">
+      <c r="A239" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B239" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C239" s="12">
+        <v>25</v>
+      </c>
+      <c r="D239" s="12">
         <v>10</v>
       </c>
-      <c r="E239" s="11" t="s">
-        <v>220</v>
+      <c r="E239" s="12" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B240" t="s">
         <v>26</v>
@@ -4725,86 +4734,86 @@
     <row r="241" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="12" t="s">
+      <c r="A243" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B243" s="12" t="s">
+      <c r="B243" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C243" s="12">
-        <v>6</v>
-      </c>
-      <c r="D243" s="12">
-        <v>23</v>
-      </c>
-      <c r="E243" s="12" t="s">
+      <c r="C243" s="10">
+        <v>7</v>
+      </c>
+      <c r="D243" s="10">
+        <v>24</v>
+      </c>
+      <c r="E243" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B244" s="12" t="s">
+      <c r="A244" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B244" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C244" s="12">
-        <v>10</v>
-      </c>
-      <c r="D244" s="12">
+      <c r="C244" s="10">
+        <v>11</v>
+      </c>
+      <c r="D244" s="10">
         <v>41</v>
       </c>
-      <c r="E244" s="12" t="s">
-        <v>167</v>
+      <c r="E244" s="10" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B245" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C245" s="13">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D245" s="13">
         <v>1</v>
       </c>
       <c r="E245" s="13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="B246" s="11" t="s">
+      <c r="A246" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B246" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C246" s="11">
-        <v>11</v>
-      </c>
-      <c r="D246" s="11">
+      <c r="C246" s="12">
+        <v>12</v>
+      </c>
+      <c r="D246" s="12">
         <v>4</v>
       </c>
-      <c r="E246" s="11" t="s">
+      <c r="E246" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B247" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -4814,31 +4823,31 @@
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="B248" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C248" s="11">
-        <v>24</v>
-      </c>
-      <c r="D248" s="11">
+      <c r="A248" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B248" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C248" s="12">
+        <v>25</v>
+      </c>
+      <c r="D248" s="12">
         <v>10</v>
       </c>
-      <c r="E248" s="11" t="s">
-        <v>220</v>
+      <c r="E248" s="12" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B249" t="s">
         <v>26</v>
       </c>
       <c r="C249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -4850,154 +4859,154 @@
     <row r="250" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="B252" s="13" t="s">
+      <c r="A252" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B252" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C252" s="13">
-        <v>6</v>
-      </c>
-      <c r="D252" s="13">
-        <v>1</v>
-      </c>
-      <c r="E252" s="13" t="s">
-        <v>253</v>
+      <c r="C252" s="12">
+        <v>26</v>
+      </c>
+      <c r="D252" s="12">
+        <v>11</v>
+      </c>
+      <c r="E252" s="12" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B253" s="11" t="s">
+      <c r="A253" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B253" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C253" s="11">
+      <c r="C253" s="12">
         <v>31</v>
       </c>
-      <c r="D253" s="11">
+      <c r="D253" s="12">
         <v>17</v>
       </c>
-      <c r="E253" s="11" t="s">
+      <c r="E253" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B254" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C254" s="13">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D254" s="13">
         <v>3</v>
       </c>
       <c r="E254" s="13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B255" s="11" t="s">
+      <c r="A255" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B255" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C255" s="11">
-        <v>17</v>
-      </c>
-      <c r="D255" s="11">
+      <c r="C255" s="12">
+        <v>18</v>
+      </c>
+      <c r="D255" s="12">
         <v>7</v>
       </c>
-      <c r="E255" s="11" t="s">
+      <c r="E255" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>274</v>
-      </c>
-      <c r="B256" t="s">
+      <c r="A256" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B256" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C256">
-        <v>0</v>
-      </c>
-      <c r="D256">
-        <v>1</v>
-      </c>
-      <c r="E256" t="s">
+      <c r="C256" s="12">
+        <v>20</v>
+      </c>
+      <c r="D256" s="12">
+        <v>6</v>
+      </c>
+      <c r="E256" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="B257" s="12" t="s">
+      <c r="A257" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B257" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C257" s="12">
-        <v>9</v>
-      </c>
-      <c r="D257" s="12">
+      <c r="C257" s="11">
+        <v>19</v>
+      </c>
+      <c r="D257" s="11">
         <v>23</v>
       </c>
-      <c r="E257" s="12" t="s">
-        <v>276</v>
+      <c r="E257" s="11" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>245</v>
-      </c>
-      <c r="B258" t="s">
+      <c r="A258" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B258" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C258">
-        <v>1</v>
-      </c>
-      <c r="D258">
-        <v>1</v>
-      </c>
-      <c r="E258" t="s">
+      <c r="C258" s="12">
+        <v>21</v>
+      </c>
+      <c r="D258" s="12">
+        <v>6</v>
+      </c>
+      <c r="E258" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="B261" s="12" t="s">
+      <c r="A261" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B261" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C261" s="12">
+      <c r="C261" s="10">
         <v>3</v>
       </c>
-      <c r="D261" s="12">
+      <c r="D261" s="10">
         <v>10</v>
       </c>
-      <c r="E261" s="12" t="s">
+      <c r="E261" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="13" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B262" s="13" t="s">
         <v>20</v>
@@ -5013,20 +5022,20 @@
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="B263" s="12" t="s">
+      <c r="A263" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B263" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C263" s="12">
-        <v>9</v>
-      </c>
-      <c r="D263" s="12">
+      <c r="C263" s="11">
+        <v>19</v>
+      </c>
+      <c r="D263" s="11">
         <v>23</v>
       </c>
-      <c r="E263" s="12" t="s">
-        <v>276</v>
+      <c r="E263" s="11" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -5040,7 +5049,7 @@
         <v>5</v>
       </c>
       <c r="D264" s="10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E264" s="10" t="s">
         <v>32</v>
@@ -5048,7 +5057,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B265" t="s">
         <v>26</v>
@@ -5065,7 +5074,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B266" t="s">
         <v>67</v>
@@ -5081,133 +5090,133 @@
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B267" s="12" t="s">
+      <c r="A267" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B267" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C267" s="12">
+      <c r="C267" s="10">
         <v>7</v>
       </c>
-      <c r="D267" s="12">
+      <c r="D267" s="10">
         <v>14</v>
       </c>
-      <c r="E267" s="12" t="s">
+      <c r="E267" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="12" t="s">
+      <c r="A270" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B270" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C270" s="10">
+        <v>3</v>
+      </c>
+      <c r="D270" s="10">
+        <v>10</v>
+      </c>
+      <c r="E270" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B271" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C271" s="11">
+        <v>7</v>
+      </c>
+      <c r="D271" s="11">
+        <v>9</v>
+      </c>
+      <c r="E271" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B272" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C272" s="12">
+        <v>14</v>
+      </c>
+      <c r="D272" s="12">
+        <v>4</v>
+      </c>
+      <c r="E272" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B273" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C273" s="12">
+        <v>16</v>
+      </c>
+      <c r="D273" s="12">
+        <v>6</v>
+      </c>
+      <c r="E273" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="B270" s="12" t="s">
+      <c r="B274" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C274" s="11">
+        <v>19</v>
+      </c>
+      <c r="D274" s="11">
         <v>23</v>
       </c>
-      <c r="C270" s="12">
-        <v>3</v>
-      </c>
-      <c r="D270" s="12">
-        <v>10</v>
-      </c>
-      <c r="E270" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B271" s="10" t="s">
+      <c r="E274" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B275" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C271" s="10">
-        <v>7</v>
-      </c>
-      <c r="D271" s="10">
-        <v>9</v>
-      </c>
-      <c r="E271" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="B272" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C272" s="11">
-        <v>13</v>
-      </c>
-      <c r="D272" s="11">
-        <v>4</v>
-      </c>
-      <c r="E272" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="B273" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C273" s="11">
-        <v>16</v>
-      </c>
-      <c r="D273" s="11">
+      <c r="C275" s="10">
         <v>6</v>
       </c>
-      <c r="E273" s="11" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="B274" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C274" s="12">
-        <v>9</v>
-      </c>
-      <c r="D274" s="12">
-        <v>23</v>
-      </c>
-      <c r="E274" s="12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="B275" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C275" s="12">
-        <v>6</v>
-      </c>
-      <c r="D275" s="12">
+      <c r="D275" s="10">
         <v>21</v>
       </c>
-      <c r="E275" s="12" t="s">
-        <v>286</v>
+      <c r="E275" s="10" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B276" t="s">
         <v>26</v>
@@ -5225,97 +5234,97 @@
     <row r="277" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="B279" s="12" t="s">
+      <c r="A279" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B279" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C279" s="12">
+      <c r="C279" s="10">
         <v>14</v>
       </c>
-      <c r="D279" s="12">
+      <c r="D279" s="10">
         <v>29</v>
       </c>
-      <c r="E279" s="12" t="s">
-        <v>248</v>
+      <c r="E279" s="10" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="12" t="s">
+      <c r="A280" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B280" s="12" t="s">
+      <c r="B280" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C280" s="12">
-        <v>7</v>
-      </c>
-      <c r="D280" s="12">
+      <c r="C280" s="10">
+        <v>8</v>
+      </c>
+      <c r="D280" s="10">
         <v>24</v>
       </c>
-      <c r="E280" s="12" t="s">
+      <c r="E280" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B281" s="12" t="s">
+      <c r="A281" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B281" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C281" s="12">
+      <c r="C281" s="10">
         <v>6</v>
       </c>
-      <c r="D281" s="12">
-        <v>16</v>
-      </c>
-      <c r="E281" s="12" t="s">
-        <v>177</v>
+      <c r="D281" s="10">
+        <v>20</v>
+      </c>
+      <c r="E281" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>221</v>
-      </c>
-      <c r="B282" t="s">
-        <v>222</v>
-      </c>
-      <c r="C282">
-        <v>0</v>
-      </c>
-      <c r="D282">
-        <v>0</v>
-      </c>
-      <c r="E282" t="s">
+      <c r="A282" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B282" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C282" s="12">
+        <v>21</v>
+      </c>
+      <c r="D282" s="12">
+        <v>10</v>
+      </c>
+      <c r="E282" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" s="12" t="s">
+      <c r="A283" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B283" s="12" t="s">
+      <c r="B283" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C283" s="12">
-        <v>12</v>
-      </c>
-      <c r="D283" s="12">
-        <v>45</v>
-      </c>
-      <c r="E283" s="12" t="s">
+      <c r="C283" s="10">
+        <v>33</v>
+      </c>
+      <c r="D283" s="10">
+        <v>51</v>
+      </c>
+      <c r="E283" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B284" t="s">
         <v>26</v>
@@ -5333,46 +5342,46 @@
     <row r="285" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="B287" s="11" t="s">
+      <c r="A287" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B287" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C287" s="11">
-        <v>37</v>
-      </c>
-      <c r="D287" s="11">
+      <c r="C287" s="12">
+        <v>38</v>
+      </c>
+      <c r="D287" s="12">
         <v>14</v>
       </c>
-      <c r="E287" s="11" t="s">
-        <v>234</v>
+      <c r="E287" s="12" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="B288" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C288" s="11">
+      <c r="A288" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B288" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C288" s="12">
         <v>19</v>
       </c>
-      <c r="D288" s="11">
+      <c r="D288" s="12">
         <v>11</v>
       </c>
-      <c r="E288" s="11" t="s">
-        <v>292</v>
+      <c r="E288" s="12" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B289" s="13" t="s">
         <v>40</v>
@@ -5384,46 +5393,46 @@
         <v>4</v>
       </c>
       <c r="E289" s="13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B290" s="11" t="s">
+      <c r="A290" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B290" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C290" s="11">
-        <v>52</v>
-      </c>
-      <c r="D290" s="11">
+      <c r="C290" s="12">
+        <v>53</v>
+      </c>
+      <c r="D290" s="12">
         <v>23</v>
       </c>
-      <c r="E290" s="11" t="s">
-        <v>189</v>
+      <c r="E290" s="12" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>221</v>
-      </c>
-      <c r="B291" t="s">
-        <v>222</v>
-      </c>
-      <c r="C291">
-        <v>0</v>
-      </c>
-      <c r="D291">
-        <v>0</v>
-      </c>
-      <c r="E291" t="s">
+      <c r="A291" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B291" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C291" s="12">
+        <v>21</v>
+      </c>
+      <c r="D291" s="12">
+        <v>10</v>
+      </c>
+      <c r="E291" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B292" t="s">
         <v>70</v>
@@ -5439,25 +5448,25 @@
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="B293" s="12" t="s">
+      <c r="A293" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B293" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C293" s="12">
+      <c r="C293" s="10">
         <v>20</v>
       </c>
-      <c r="D293" s="12">
+      <c r="D293" s="10">
         <v>35</v>
       </c>
-      <c r="E293" s="12" t="s">
+      <c r="E293" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B294" t="s">
         <v>67</v>
@@ -5475,15 +5484,15 @@
     <row r="295" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="13" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B297" s="13" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C297" s="13">
         <v>6</v>
@@ -5496,59 +5505,59 @@
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B298" s="12" t="s">
+      <c r="A298" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B298" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C298" s="12">
+      <c r="C298" s="10">
         <v>10</v>
       </c>
-      <c r="D298" s="12">
+      <c r="D298" s="10">
         <v>34</v>
       </c>
-      <c r="E298" s="12" t="s">
-        <v>130</v>
+      <c r="E298" s="10" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B299" s="10" t="s">
+      <c r="A299" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B299" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C299" s="10">
+      <c r="C299" s="11">
         <v>13</v>
       </c>
-      <c r="D299" s="10">
+      <c r="D299" s="11">
         <v>14</v>
       </c>
-      <c r="E299" s="10" t="s">
-        <v>147</v>
+      <c r="E299" s="11" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B300" s="10" t="s">
+      <c r="A300" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B300" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C300" s="10">
+      <c r="C300" s="11">
         <v>6</v>
       </c>
-      <c r="D300" s="10">
+      <c r="D300" s="11">
         <v>8</v>
       </c>
-      <c r="E300" s="10" t="s">
-        <v>200</v>
+      <c r="E300" s="11" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B301" t="s">
         <v>26</v>
@@ -5564,36 +5573,36 @@
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>274</v>
-      </c>
-      <c r="B302" t="s">
+      <c r="A302" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B302" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C302">
-        <v>0</v>
-      </c>
-      <c r="D302">
-        <v>1</v>
-      </c>
-      <c r="E302" t="s">
+      <c r="C302" s="12">
+        <v>20</v>
+      </c>
+      <c r="D302" s="12">
+        <v>6</v>
+      </c>
+      <c r="E302" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>297</v>
-      </c>
-      <c r="B303" t="s">
+      <c r="A303" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B303" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C303">
-        <v>1</v>
-      </c>
-      <c r="D303">
-        <v>1</v>
-      </c>
-      <c r="E303" t="s">
+      <c r="C303" s="10">
+        <v>6</v>
+      </c>
+      <c r="D303" s="10">
+        <v>11</v>
+      </c>
+      <c r="E303" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5617,29 +5626,29 @@
     <row r="305" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B307" s="12" t="s">
+      <c r="A307" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B307" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C307" s="12">
+      <c r="C307" s="10">
         <v>5</v>
       </c>
-      <c r="D307" s="12">
-        <v>14</v>
-      </c>
-      <c r="E307" s="12" t="s">
+      <c r="D307" s="10">
+        <v>15</v>
+      </c>
+      <c r="E307" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="13" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B308" s="13" t="s">
         <v>20</v>
@@ -5651,46 +5660,46 @@
         <v>3</v>
       </c>
       <c r="E308" s="13" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="B309" s="11" t="s">
+      <c r="A309" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B309" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C309" s="11">
+      <c r="C309" s="12">
         <v>16</v>
       </c>
-      <c r="D309" s="11">
+      <c r="D309" s="12">
         <v>6</v>
       </c>
-      <c r="E309" s="11" t="s">
-        <v>284</v>
+      <c r="E309" s="12" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="13" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B310" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C310" s="13">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D310" s="13">
         <v>1</v>
       </c>
       <c r="E310" s="13" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B311" t="s">
         <v>31</v>
@@ -5707,7 +5716,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B312" t="s">
         <v>26</v>
@@ -5759,63 +5768,63 @@
     <row r="315" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B317" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C317" s="10">
+      <c r="A317" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B317" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C317" s="11">
         <v>31</v>
       </c>
-      <c r="D317" s="10">
+      <c r="D317" s="11">
         <v>22</v>
       </c>
-      <c r="E317" s="10" t="s">
-        <v>185</v>
+      <c r="E317" s="11" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="10" t="s">
+      <c r="A318" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B318" s="10" t="s">
+      <c r="B318" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C318" s="10">
+      <c r="C318" s="11">
         <v>7</v>
       </c>
-      <c r="D318" s="10">
+      <c r="D318" s="11">
         <v>9</v>
       </c>
-      <c r="E318" s="10" t="s">
+      <c r="E318" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="B319" s="10" t="s">
+      <c r="A319" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B319" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C319" s="10">
+      <c r="C319" s="11">
         <v>7</v>
       </c>
-      <c r="D319" s="10">
-        <v>7</v>
-      </c>
-      <c r="E319" s="10" t="s">
+      <c r="D319" s="11">
+        <v>8</v>
+      </c>
+      <c r="E319" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="9" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B320" s="9" t="s">
         <v>20</v>
@@ -5827,81 +5836,81 @@
         <v>18</v>
       </c>
       <c r="E320" s="9" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="B321" s="12" t="s">
+      <c r="A321" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B321" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C321" s="12">
+      <c r="C321" s="10">
         <v>2</v>
       </c>
-      <c r="D321" s="12">
+      <c r="D321" s="10">
         <v>7</v>
       </c>
-      <c r="E321" s="12" t="s">
+      <c r="E321" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="12" t="s">
+      <c r="A322" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B322" s="12" t="s">
+      <c r="B322" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C322" s="12">
-        <v>12</v>
-      </c>
-      <c r="D322" s="12">
-        <v>45</v>
-      </c>
-      <c r="E322" s="12" t="s">
+      <c r="C322" s="10">
+        <v>33</v>
+      </c>
+      <c r="D322" s="10">
+        <v>51</v>
+      </c>
+      <c r="E322" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="11" t="s">
+      <c r="A323" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B323" s="11" t="s">
+      <c r="B323" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C323" s="11">
+      <c r="C323" s="12">
         <v>16</v>
       </c>
-      <c r="D323" s="11">
+      <c r="D323" s="12">
         <v>10</v>
       </c>
-      <c r="E323" s="11" t="s">
+      <c r="E323" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="B326" s="11" t="s">
+      <c r="A326" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="B326" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C326" s="11">
+      <c r="C326" s="12">
         <v>42</v>
       </c>
-      <c r="D326" s="11">
+      <c r="D326" s="12">
         <v>20</v>
       </c>
-      <c r="E326" s="11" t="s">
-        <v>311</v>
+      <c r="E326" s="12" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -5912,7 +5921,7 @@
         <v>34</v>
       </c>
       <c r="C327" s="13">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D327" s="13">
         <v>1</v>
@@ -5923,7 +5932,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="13" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B328" s="13" t="s">
         <v>23</v>
@@ -5940,7 +5949,7 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="13" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B329" s="13" t="s">
         <v>70</v>
@@ -5956,42 +5965,42 @@
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="B330" s="10" t="s">
+      <c r="A330" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B330" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C330" s="10">
+      <c r="C330" s="11">
         <v>7</v>
       </c>
-      <c r="D330" s="10">
+      <c r="D330" s="11">
+        <v>8</v>
+      </c>
+      <c r="E330" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B331" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C331" s="10">
+        <v>2</v>
+      </c>
+      <c r="D331" s="10">
         <v>7</v>
       </c>
-      <c r="E330" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="B331" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C331" s="12">
-        <v>2</v>
-      </c>
-      <c r="D331" s="12">
-        <v>7</v>
-      </c>
-      <c r="E331" s="12" t="s">
+      <c r="E331" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B332" t="s">
         <v>67</v>
@@ -6009,63 +6018,63 @@
     <row r="333" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" s="10" t="s">
+      <c r="A335" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B335" s="10" t="s">
+      <c r="B335" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C335" s="10">
-        <v>2</v>
-      </c>
-      <c r="D335" s="10">
-        <v>3</v>
-      </c>
-      <c r="E335" s="10" t="s">
+      <c r="C335" s="11">
+        <v>12</v>
+      </c>
+      <c r="D335" s="11">
+        <v>13</v>
+      </c>
+      <c r="E335" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="B336" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C336" s="10">
+      <c r="A336" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B336" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C336" s="11">
         <v>21</v>
       </c>
-      <c r="D336" s="10">
+      <c r="D336" s="11">
         <v>24</v>
       </c>
-      <c r="E336" s="10" t="s">
-        <v>316</v>
+      <c r="E336" s="11" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" s="10" t="s">
+      <c r="A337" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B337" s="10" t="s">
+      <c r="B337" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C337" s="10">
-        <v>46</v>
-      </c>
-      <c r="D337" s="10">
+      <c r="C337" s="12">
+        <v>61</v>
+      </c>
+      <c r="D337" s="12">
         <v>33</v>
       </c>
-      <c r="E337" s="10" t="s">
+      <c r="E337" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="13" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B338" s="13" t="s">
         <v>70</v>
@@ -6081,25 +6090,25 @@
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>317</v>
-      </c>
-      <c r="B339" t="s">
+      <c r="A339" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B339" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C339">
-        <v>4</v>
-      </c>
-      <c r="D339">
-        <v>0</v>
-      </c>
-      <c r="E339" t="s">
+      <c r="C339" s="11">
+        <v>14</v>
+      </c>
+      <c r="D339" s="11">
+        <v>10</v>
+      </c>
+      <c r="E339" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B340" s="9" t="s">
         <v>31</v>
@@ -6108,15 +6117,15 @@
         <v>0</v>
       </c>
       <c r="D340" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E340" s="9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B341" t="s">
         <v>26</v>
@@ -6133,10 +6142,10 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B342" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C342">
         <v>2</v>
@@ -6151,29 +6160,29 @@
     <row r="343" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B345" s="12" t="s">
+      <c r="A345" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B345" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C345" s="12">
+      <c r="C345" s="10">
         <v>11</v>
       </c>
-      <c r="D345" s="12">
+      <c r="D345" s="10">
         <v>45</v>
       </c>
-      <c r="E345" s="12" t="s">
-        <v>172</v>
+      <c r="E345" s="10" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="13" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B346" s="13" t="s">
         <v>76</v>
@@ -6185,46 +6194,46 @@
         <v>18</v>
       </c>
       <c r="E346" s="13" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B347" s="12" t="s">
+      <c r="A347" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B347" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C347" s="12">
+      <c r="C347" s="10">
         <v>11</v>
       </c>
-      <c r="D347" s="12">
-        <v>27</v>
-      </c>
-      <c r="E347" s="12" t="s">
+      <c r="D347" s="10">
+        <v>27</v>
+      </c>
+      <c r="E347" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="B348" s="12" t="s">
+      <c r="A348" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B348" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C348" s="12">
+      <c r="C348" s="10">
         <v>3</v>
       </c>
-      <c r="D348" s="12">
+      <c r="D348" s="10">
         <v>9</v>
       </c>
-      <c r="E348" s="12" t="s">
-        <v>250</v>
+      <c r="E348" s="10" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B349" s="9" t="s">
         <v>29</v>
@@ -6236,12 +6245,12 @@
         <v>32</v>
       </c>
       <c r="E349" s="9" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B350" t="s">
         <v>31</v>
@@ -6257,116 +6266,116 @@
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" s="11" t="s">
+      <c r="A351" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B351" s="11" t="s">
+      <c r="B351" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C351" s="11">
-        <v>35</v>
-      </c>
-      <c r="D351" s="11">
+      <c r="C351" s="12">
+        <v>36</v>
+      </c>
+      <c r="D351" s="12">
         <v>14</v>
       </c>
-      <c r="E351" s="11" t="s">
+      <c r="E351" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="11" t="s">
+      <c r="A354" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B354" s="11" t="s">
+      <c r="B354" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C354" s="11">
+      <c r="C354" s="12">
         <v>33</v>
       </c>
-      <c r="D354" s="11">
+      <c r="D354" s="12">
         <v>14</v>
       </c>
-      <c r="E354" s="11" t="s">
+      <c r="E354" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="B355" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C355" s="11">
+      <c r="A355" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="B355" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C355" s="12">
         <v>47</v>
       </c>
-      <c r="D355" s="11">
+      <c r="D355" s="12">
         <v>20</v>
       </c>
-      <c r="E355" s="11" t="s">
-        <v>327</v>
+      <c r="E355" s="12" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B356" s="10" t="s">
+      <c r="A356" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B356" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C356" s="10">
+      <c r="C356" s="11">
         <v>26</v>
       </c>
-      <c r="D356" s="10">
+      <c r="D356" s="11">
         <v>18</v>
       </c>
-      <c r="E356" s="10" t="s">
-        <v>119</v>
+      <c r="E356" s="11" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B357" s="11" t="s">
+      <c r="A357" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B357" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C357" s="11">
-        <v>10</v>
-      </c>
-      <c r="D357" s="11">
+      <c r="C357" s="12">
+        <v>11</v>
+      </c>
+      <c r="D357" s="12">
         <v>6</v>
       </c>
-      <c r="E357" s="11" t="s">
-        <v>27</v>
+      <c r="E357" s="12" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B358" s="12" t="s">
+      <c r="A358" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B358" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C358" s="12">
+      <c r="C358" s="10">
         <v>11</v>
       </c>
-      <c r="D358" s="12">
-        <v>27</v>
-      </c>
-      <c r="E358" s="12" t="s">
+      <c r="D358" s="10">
+        <v>27</v>
+      </c>
+      <c r="E358" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B359" s="9" t="s">
         <v>29</v>
@@ -6378,12 +6387,12 @@
         <v>32</v>
       </c>
       <c r="E359" s="9" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B360" t="s">
         <v>26</v>
@@ -6400,10 +6409,10 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B361" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C361">
         <v>2</v>
@@ -6418,12 +6427,12 @@
     <row r="362" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B364" s="13" t="s">
         <v>20</v>
@@ -6435,12 +6444,12 @@
         <v>0</v>
       </c>
       <c r="E364" s="13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="13" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B365" s="13" t="s">
         <v>26</v>
@@ -6452,154 +6461,154 @@
         <v>0</v>
       </c>
       <c r="E365" s="13" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B366" s="10" t="s">
+      <c r="A366" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B366" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C366" s="10">
+      <c r="C366" s="11">
         <v>13</v>
       </c>
-      <c r="D366" s="10">
+      <c r="D366" s="11">
         <v>14</v>
       </c>
-      <c r="E366" s="10" t="s">
-        <v>147</v>
+      <c r="E366" s="11" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="B367" s="11" t="s">
+      <c r="A367" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B367" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C367" s="11">
-        <v>32</v>
-      </c>
-      <c r="D367" s="11">
-        <v>10</v>
-      </c>
-      <c r="E367" s="11" t="s">
-        <v>195</v>
+      <c r="C367" s="12">
+        <v>33</v>
+      </c>
+      <c r="D367" s="12">
+        <v>11</v>
+      </c>
+      <c r="E367" s="12" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B368" s="12" t="s">
+      <c r="A368" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B368" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C368" s="12">
-        <v>10</v>
-      </c>
-      <c r="D368" s="12">
+      <c r="C368" s="10">
+        <v>11</v>
+      </c>
+      <c r="D368" s="10">
         <v>41</v>
       </c>
-      <c r="E368" s="12" t="s">
-        <v>167</v>
+      <c r="E368" s="10" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B369" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C369" s="13">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D369" s="13">
         <v>1</v>
       </c>
       <c r="E369" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="B370" s="11" t="s">
+      <c r="A370" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="B370" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C370" s="11">
-        <v>16</v>
-      </c>
-      <c r="D370" s="11">
+      <c r="C370" s="13">
+        <v>21</v>
+      </c>
+      <c r="D370" s="13">
         <v>5</v>
       </c>
-      <c r="E370" s="11" t="s">
-        <v>333</v>
+      <c r="E370" s="13" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="B373" s="11" t="s">
+      <c r="A373" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="B373" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C373" s="11">
+      <c r="C373" s="12">
         <v>43</v>
       </c>
-      <c r="D373" s="11">
+      <c r="D373" s="12">
         <v>24</v>
       </c>
-      <c r="E373" s="11" t="s">
+      <c r="E373" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="9" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B374" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C374" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D374" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E374" s="9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="12" t="s">
+      <c r="A375" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B375" s="12" t="s">
+      <c r="B375" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C375" s="12">
+      <c r="C375" s="10">
         <v>15</v>
       </c>
-      <c r="D375" s="12">
+      <c r="D375" s="10">
         <v>36</v>
       </c>
-      <c r="E375" s="12" t="s">
+      <c r="E375" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="13" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B376" s="13" t="s">
         <v>26</v>
@@ -6611,63 +6620,63 @@
         <v>0</v>
       </c>
       <c r="E376" s="13" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B377" s="12" t="s">
+      <c r="A377" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B377" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C377" s="12">
+      <c r="C377" s="10">
         <v>17</v>
       </c>
-      <c r="D377" s="12">
+      <c r="D377" s="10">
         <v>58</v>
       </c>
-      <c r="E377" s="12" t="s">
-        <v>121</v>
+      <c r="E377" s="10" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B378" s="12" t="s">
+      <c r="A378" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B378" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C378" s="12">
-        <v>10</v>
-      </c>
-      <c r="D378" s="12">
+      <c r="C378" s="10">
+        <v>11</v>
+      </c>
+      <c r="D378" s="10">
         <v>41</v>
       </c>
-      <c r="E378" s="12" t="s">
-        <v>167</v>
+      <c r="E378" s="10" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="B379" s="11" t="s">
+      <c r="A379" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="B379" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C379" s="11">
-        <v>16</v>
-      </c>
-      <c r="D379" s="11">
+      <c r="C379" s="13">
+        <v>21</v>
+      </c>
+      <c r="D379" s="13">
         <v>5</v>
       </c>
-      <c r="E379" s="11" t="s">
-        <v>333</v>
+      <c r="E379" s="13" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B380" s="9" t="s">
         <v>31</v>
@@ -6676,21 +6685,21 @@
         <v>0</v>
       </c>
       <c r="D380" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E380" s="9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="13" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B383" s="13" t="s">
         <v>20</v>
@@ -6702,29 +6711,29 @@
         <v>17</v>
       </c>
       <c r="E383" s="13" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B384" s="11" t="s">
+      <c r="A384" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B384" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C384" s="11">
+      <c r="C384" s="12">
         <v>5</v>
       </c>
-      <c r="D384" s="11">
+      <c r="D384" s="12">
         <v>3</v>
       </c>
-      <c r="E384" s="11" t="s">
-        <v>204</v>
+      <c r="E384" s="12" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="13" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B385" s="13" t="s">
         <v>20</v>
@@ -6741,7 +6750,7 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B386" s="13" t="s">
         <v>34</v>
@@ -6753,29 +6762,29 @@
         <v>5</v>
       </c>
       <c r="E386" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A387" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="B387" s="11" t="s">
+      <c r="A387" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B387" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C387" s="11">
-        <v>21</v>
-      </c>
-      <c r="D387" s="11">
+      <c r="C387" s="12">
+        <v>22</v>
+      </c>
+      <c r="D387" s="12">
         <v>6</v>
       </c>
-      <c r="E387" s="11" t="s">
-        <v>340</v>
+      <c r="E387" s="12" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B388" s="9" t="s">
         <v>31</v>
@@ -6784,15 +6793,15 @@
         <v>3</v>
       </c>
       <c r="D388" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E388" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B389" s="9" t="s">
         <v>70</v>
@@ -6804,103 +6813,103 @@
         <v>26</v>
       </c>
       <c r="E389" s="9" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="13" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B390" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C390" s="13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D390" s="13">
         <v>0</v>
       </c>
       <c r="E390" s="13" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A393" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B393" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C393" s="10">
+      <c r="A393" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B393" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C393" s="11">
         <v>26</v>
       </c>
-      <c r="D393" s="10">
+      <c r="D393" s="11">
         <v>22</v>
       </c>
-      <c r="E393" s="10" t="s">
+      <c r="E393" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A394" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="B394" s="11" t="s">
+      <c r="A394" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B394" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C394" s="11">
+      <c r="C394" s="12">
         <v>7</v>
       </c>
-      <c r="D394" s="11">
+      <c r="D394" s="12">
         <v>2</v>
       </c>
-      <c r="E394" s="11" t="s">
-        <v>187</v>
+      <c r="E394" s="12" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B395" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C395" s="13">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D395" s="13">
         <v>1</v>
       </c>
       <c r="E395" s="13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A396" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="B396" s="11" t="s">
+      <c r="A396" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B396" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C396" s="11">
-        <v>21</v>
-      </c>
-      <c r="D396" s="11">
+      <c r="C396" s="12">
+        <v>22</v>
+      </c>
+      <c r="D396" s="12">
         <v>6</v>
       </c>
-      <c r="E396" s="11" t="s">
-        <v>340</v>
+      <c r="E396" s="12" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B397" t="s">
         <v>31</v>
@@ -6916,82 +6925,82 @@
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
-        <v>346</v>
-      </c>
-      <c r="B398" t="s">
+      <c r="A398" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B398" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C398">
-        <v>3</v>
-      </c>
-      <c r="D398">
-        <v>0</v>
-      </c>
-      <c r="E398" t="s">
+      <c r="C398" s="12">
+        <v>19</v>
+      </c>
+      <c r="D398" s="12">
+        <v>5</v>
+      </c>
+      <c r="E398" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A399" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B399" s="10" t="s">
+      <c r="A399" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B399" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C399" s="10">
+      <c r="C399" s="11">
         <v>9</v>
       </c>
-      <c r="D399" s="10">
+      <c r="D399" s="11">
         <v>12</v>
       </c>
-      <c r="E399" s="10" t="s">
-        <v>151</v>
+      <c r="E399" s="11" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="13" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B400" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C400" s="13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D400" s="13">
         <v>0</v>
       </c>
       <c r="E400" s="13" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A403" s="11" t="s">
+      <c r="A403" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B403" s="11" t="s">
+      <c r="B403" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C403" s="11">
-        <v>3</v>
-      </c>
-      <c r="D403" s="11">
-        <v>2</v>
-      </c>
-      <c r="E403" s="11" t="s">
-        <v>27</v>
+      <c r="C403" s="12">
+        <v>18</v>
+      </c>
+      <c r="D403" s="12">
+        <v>7</v>
+      </c>
+      <c r="E403" s="12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B404" t="s">
         <v>23</v>
@@ -7003,46 +7012,46 @@
         <v>1</v>
       </c>
       <c r="E404" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B405" s="11" t="s">
+      <c r="A405" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B405" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C405" s="11">
-        <v>17</v>
-      </c>
-      <c r="D405" s="11">
+      <c r="C405" s="12">
+        <v>18</v>
+      </c>
+      <c r="D405" s="12">
         <v>7</v>
       </c>
-      <c r="E405" s="11" t="s">
+      <c r="E405" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A406" s="10" t="s">
+      <c r="A406" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B406" s="10" t="s">
+      <c r="B406" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C406" s="10">
+      <c r="C406" s="11">
         <v>11</v>
       </c>
-      <c r="D406" s="10">
+      <c r="D406" s="11">
         <v>15</v>
       </c>
-      <c r="E406" s="10" t="s">
+      <c r="E406" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B407" t="s">
         <v>29</v>
@@ -7058,25 +7067,25 @@
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
-        <v>346</v>
-      </c>
-      <c r="B408" t="s">
+      <c r="A408" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B408" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C408">
-        <v>3</v>
-      </c>
-      <c r="D408">
-        <v>0</v>
-      </c>
-      <c r="E408" t="s">
+      <c r="C408" s="12">
+        <v>19</v>
+      </c>
+      <c r="D408" s="12">
+        <v>5</v>
+      </c>
+      <c r="E408" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B409" t="s">
         <v>26</v>
@@ -7094,7 +7103,7 @@
     <row r="410" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -7108,66 +7117,66 @@
         <v>1</v>
       </c>
       <c r="D412" s="9">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E412" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A413" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B413" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C413" s="10">
+      <c r="A413" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B413" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C413" s="11">
         <v>31</v>
       </c>
-      <c r="D413" s="10">
+      <c r="D413" s="11">
         <v>22</v>
       </c>
-      <c r="E413" s="10" t="s">
-        <v>185</v>
+      <c r="E413" s="11" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A414" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B414" s="11" t="s">
+      <c r="A414" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B414" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C414" s="11">
+      <c r="C414" s="12">
         <v>31</v>
       </c>
-      <c r="D414" s="11">
+      <c r="D414" s="12">
         <v>17</v>
       </c>
-      <c r="E414" s="11" t="s">
+      <c r="E414" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A415" s="10" t="s">
+      <c r="A415" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B415" s="10" t="s">
+      <c r="B415" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C415" s="10">
+      <c r="C415" s="11">
         <v>7</v>
       </c>
-      <c r="D415" s="10">
+      <c r="D415" s="11">
         <v>9</v>
       </c>
-      <c r="E415" s="10" t="s">
+      <c r="E415" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B416" t="s">
         <v>29</v>
@@ -7184,7 +7193,7 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="13" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B417" s="13" t="s">
         <v>23</v>
@@ -7196,12 +7205,12 @@
         <v>1</v>
       </c>
       <c r="E417" s="13" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B418" t="s">
         <v>26</v>
@@ -7217,43 +7226,43 @@
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A419" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B419" s="12" t="s">
+      <c r="A419" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B419" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C419" s="12">
+      <c r="C419" s="10">
         <v>7</v>
       </c>
-      <c r="D419" s="12">
+      <c r="D419" s="10">
         <v>14</v>
       </c>
-      <c r="E419" s="12" t="s">
+      <c r="E419" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="13" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B422" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C422" s="13">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D422" s="13">
         <v>15</v>
       </c>
       <c r="E422" s="13" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
@@ -7274,59 +7283,59 @@
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A424" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="B424" s="11" t="s">
+      <c r="A424" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B424" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C424" s="11">
-        <v>13</v>
-      </c>
-      <c r="D424" s="11">
+      <c r="C424" s="12">
+        <v>14</v>
+      </c>
+      <c r="D424" s="12">
         <v>4</v>
       </c>
-      <c r="E424" s="11" t="s">
-        <v>169</v>
+      <c r="E424" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A425" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B425" s="12" t="s">
+      <c r="A425" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B425" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C425" s="12">
+      <c r="C425" s="10">
+        <v>11</v>
+      </c>
+      <c r="D425" s="10">
+        <v>18</v>
+      </c>
+      <c r="E425" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B426" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C426" s="12">
+        <v>25</v>
+      </c>
+      <c r="D426" s="12">
         <v>10</v>
       </c>
-      <c r="D425" s="12">
-        <v>18</v>
-      </c>
-      <c r="E425" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="B426" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C426" s="11">
-        <v>24</v>
-      </c>
-      <c r="D426" s="11">
-        <v>10</v>
-      </c>
-      <c r="E426" s="11" t="s">
-        <v>220</v>
+      <c r="E426" s="12" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="13" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B427" s="13" t="s">
         <v>29</v>
@@ -7338,12 +7347,12 @@
         <v>0</v>
       </c>
       <c r="E427" s="13" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="13" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B428" s="13" t="s">
         <v>26</v>
@@ -7361,29 +7370,29 @@
     <row r="429" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A431" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B431" s="11" t="s">
+      <c r="A431" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B431" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C431" s="11">
-        <v>27</v>
-      </c>
-      <c r="D431" s="11">
-        <v>8</v>
-      </c>
-      <c r="E431" s="11" t="s">
-        <v>164</v>
+      <c r="C431" s="12">
+        <v>27</v>
+      </c>
+      <c r="D431" s="12">
+        <v>12</v>
+      </c>
+      <c r="E431" s="12" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B432" s="13" t="s">
         <v>20</v>
@@ -7395,46 +7404,46 @@
         <v>6</v>
       </c>
       <c r="E432" s="13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
-        <v>165</v>
-      </c>
-      <c r="B433" t="s">
+      <c r="A433" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B433" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C433">
+      <c r="C433" s="10">
         <v>3</v>
       </c>
-      <c r="D433">
-        <v>0</v>
-      </c>
-      <c r="E433" t="s">
-        <v>27</v>
+      <c r="D433" s="10">
+        <v>5</v>
+      </c>
+      <c r="E433" s="10" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A434" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B434" s="12" t="s">
+      <c r="A434" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B434" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C434" s="12">
+      <c r="C434" s="10">
         <v>6</v>
       </c>
-      <c r="D434" s="12">
-        <v>16</v>
-      </c>
-      <c r="E434" s="12" t="s">
-        <v>177</v>
+      <c r="D434" s="10">
+        <v>20</v>
+      </c>
+      <c r="E434" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="13" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B435" s="13" t="s">
         <v>29</v>
@@ -7446,12 +7455,12 @@
         <v>0</v>
       </c>
       <c r="E435" s="13" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B436" t="s">
         <v>31</v>
@@ -7468,7 +7477,7 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="13" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B437" s="13" t="s">
         <v>26</v>
@@ -7485,7 +7494,7 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B438" s="10" t="s">
         <v>67</v>
@@ -7494,106 +7503,106 @@
         <v>13</v>
       </c>
       <c r="D438" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E438" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A441" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B441" s="10" t="s">
+      <c r="A441" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B441" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C441" s="10">
+      <c r="C441" s="11">
+        <v>22</v>
+      </c>
+      <c r="D441" s="11">
+        <v>19</v>
+      </c>
+      <c r="E441" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B442" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C442" s="11">
+        <v>34</v>
+      </c>
+      <c r="D442" s="11">
+        <v>29</v>
+      </c>
+      <c r="E442" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B443" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C443" s="10">
+        <v>5</v>
+      </c>
+      <c r="D443" s="10">
+        <v>17</v>
+      </c>
+      <c r="E443" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A444" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B444" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C444" s="12">
+        <v>53</v>
+      </c>
+      <c r="D444" s="12">
+        <v>23</v>
+      </c>
+      <c r="E444" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A445" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B445" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C445" s="12">
         <v>21</v>
       </c>
-      <c r="D441" s="10">
-        <v>19</v>
-      </c>
-      <c r="E441" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A442" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B442" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C442" s="10">
-        <v>34</v>
-      </c>
-      <c r="D442" s="10">
-        <v>29</v>
-      </c>
-      <c r="E442" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A443" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="B443" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C443" s="12">
-        <v>5</v>
-      </c>
-      <c r="D443" s="12">
-        <v>17</v>
-      </c>
-      <c r="E443" s="12" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A444" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B444" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C444" s="11">
-        <v>52</v>
-      </c>
-      <c r="D444" s="11">
-        <v>23</v>
-      </c>
-      <c r="E444" s="11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
-        <v>221</v>
-      </c>
-      <c r="B445" t="s">
-        <v>222</v>
-      </c>
-      <c r="C445">
-        <v>0</v>
-      </c>
-      <c r="D445">
-        <v>0</v>
-      </c>
-      <c r="E445" t="s">
+      <c r="D445" s="12">
+        <v>10</v>
+      </c>
+      <c r="E445" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B446" t="s">
         <v>29</v>
@@ -7628,12 +7637,12 @@
     <row r="448" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="13" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B450" s="13" t="s">
         <v>76</v>
@@ -7645,80 +7654,80 @@
         <v>18</v>
       </c>
       <c r="E450" s="13" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A451" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="B451" s="10" t="s">
+      <c r="A451" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B451" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C451" s="10">
+      <c r="C451" s="11">
         <v>13</v>
       </c>
-      <c r="D451" s="10">
+      <c r="D451" s="11">
         <v>18</v>
       </c>
-      <c r="E451" s="10" t="s">
-        <v>255</v>
+      <c r="E451" s="11" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A452" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="B452" s="12" t="s">
+      <c r="A452" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B452" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C452" s="12">
+      <c r="C452" s="10">
         <v>5</v>
       </c>
-      <c r="D452" s="12">
+      <c r="D452" s="10">
         <v>17</v>
       </c>
-      <c r="E452" s="12" t="s">
-        <v>359</v>
+      <c r="E452" s="10" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A453" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B453" s="12" t="s">
+      <c r="A453" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B453" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C453" s="12">
-        <v>10</v>
-      </c>
-      <c r="D453" s="12">
+      <c r="C453" s="10">
+        <v>11</v>
+      </c>
+      <c r="D453" s="10">
         <v>41</v>
       </c>
-      <c r="E453" s="12" t="s">
-        <v>167</v>
+      <c r="E453" s="10" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A454" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B454" s="10" t="s">
+      <c r="A454" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B454" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C454" s="10">
+      <c r="C454" s="11">
         <v>6</v>
       </c>
-      <c r="D454" s="10">
+      <c r="D454" s="11">
         <v>8</v>
       </c>
-      <c r="E454" s="10" t="s">
-        <v>200</v>
+      <c r="E454" s="11" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="9" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B455" s="9" t="s">
         <v>20</v>
@@ -7730,29 +7739,29 @@
         <v>18</v>
       </c>
       <c r="E455" s="9" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A456" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="B456" s="12" t="s">
+      <c r="A456" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B456" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C456" s="12">
+      <c r="C456" s="10">
         <v>5</v>
       </c>
-      <c r="D456" s="12">
+      <c r="D456" s="10">
         <v>16</v>
       </c>
-      <c r="E456" s="12" t="s">
-        <v>363</v>
+      <c r="E456" s="10" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="9" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B457" s="9" t="s">
         <v>67</v>
@@ -7764,7 +7773,7 @@
         <v>21</v>
       </c>
       <c r="E457" s="9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25"/>
